--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -189,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +238,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -267,6 +267,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
@@ -274,6 +280,30 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="15.0"/>
       <b val="true"/>
       <color indexed="10"/>
@@ -286,6 +316,24 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="15.0"/>
       <b val="true"/>
       <color indexed="10"/>
@@ -295,36 +343,6 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -415,7 +433,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,15 +478,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,33 +520,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -515,6 +533,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -823,7 +844,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,42 +1682,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1712,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="10"/>
       <c r="J4" s="8" t="s">
         <v>18</v>
@@ -1740,7 +1761,7 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1752,16 +1773,16 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -1773,37 +1794,39 @@
       <c r="H6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33"/>
+      <c r="I6" t="s" s="51">
+        <v>54</v>
+      </c>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="30"/>
       <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1813,15 +1836,17 @@
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" t="s" s="47">
+        <v>54</v>
+      </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1839,14 +1864,16 @@
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" t="s" s="48">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -1862,33 +1889,35 @@
       <c r="H10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" t="s" s="49">
+        <v>54</v>
+      </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s" s="47">
+      <c r="I11" t="s" s="40">
         <v>54</v>
       </c>
     </row>
@@ -1896,23 +1925,23 @@
       <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1928,8 +1957,8 @@
       <c r="H13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s" s="48">
-        <v>55</v>
+      <c r="I13" t="s" s="41">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1962,6 +1991,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="H11:H12"/>
@@ -1970,14 +2007,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:J3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>TC_ID9</t>
+  </si>
+  <si>
+    <t>user_Registeration()</t>
+  </si>
+  <si>
+    <t>user_Registeration_Validations()</t>
   </si>
   <si>
     <t>PASS</t>
@@ -189,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,10 +279,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -328,12 +334,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="15.0"/>
       <b val="true"/>
       <color indexed="10"/>
@@ -343,6 +343,258 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -433,7 +685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,32 +736,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,11 +751,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -536,6 +788,47 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -844,7 +1137,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I6" sqref="I6:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,42 +1975,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1773,60 +2066,60 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s" s="51">
-        <v>54</v>
-      </c>
-      <c r="J6" s="26"/>
+      <c r="I6" t="s" s="85">
+        <v>57</v>
+      </c>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1836,8 +2129,8 @@
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s" s="47">
-        <v>54</v>
+      <c r="I8" t="s" s="86">
+        <v>57</v>
       </c>
       <c r="J8" s="12"/>
     </row>
@@ -1845,8 +2138,8 @@
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1864,16 +2157,16 @@
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s" s="48">
-        <v>54</v>
+      <c r="I9" t="s" s="87">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -1889,8 +2182,8 @@
       <c r="H10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I10" t="s" s="49">
-        <v>54</v>
+      <c r="I10" t="s" s="88">
+        <v>57</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -1898,50 +2191,50 @@
       <c r="A11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s" s="40">
-        <v>54</v>
+      <c r="I11" t="s" s="89">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="28"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1957,8 +2250,8 @@
       <c r="H13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s" s="41">
-        <v>54</v>
+      <c r="I13" t="s" s="90">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,8 +2264,14 @@
       <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="19" t="s">
         <v>46</v>
+      </c>
+      <c r="I14" t="s" s="91">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1982,15 +2281,29 @@
       <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>48</v>
+      </c>
+      <c r="I15" t="s" s="92">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
@@ -1999,14 +2312,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -109,9 +109,6 @@
     <t>submitQuery_Validations()</t>
   </si>
   <si>
-    <t>Sunil,sunil@mailinator.com,9910881849,Great Guys keep it up</t>
-  </si>
-  <si>
     <t>9,8</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
     <t>To Verify Registeration</t>
   </si>
   <si>
-    <t>Sunil,sunil@mailinator.com,f00bar12,f00bar12,9910881849</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>StepAhead</t>
   </si>
   <si>
@@ -184,14 +175,38 @@
     <t>user_Registeration_Validations()</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>To Verify Logout</t>
+  </si>
+  <si>
+    <t>Logout()</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
+    <t>Sunil,sunil2@mailinator.com,9910881849,Great Guys keep it up</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Sunil,sunil8@mailinator.com,f00bar12,f00bar12,9910881849</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>To verify forget password</t>
+  </si>
+  <si>
+    <t>forgetPassword()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,51 +254,58 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -375,7 +397,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -426,34 +448,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,9 +480,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -773,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,42 +1639,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1705,80 +1730,80 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="H7" s="39"/>
       <c r="I7" s="41"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>56</v>
+      <c r="I8" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1791,20 +1816,20 @@
         <v>30</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>56</v>
+      <c r="I9" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="29"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="42"/>
       <c r="C10" s="30"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
@@ -1813,64 +1838,64 @@
         <v>7</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>56</v>
+      <c r="I10" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="28" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>56</v>
+      <c r="I11" s="29" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1881,60 +1906,105 @@
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="C15" s="42"/>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>56</v>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
@@ -1943,14 +2013,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -801,7 +801,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -187,26 +187,29 @@
     <t>Sunil,sunil2@mailinator.com,9910881849,Great Guys keep it up</t>
   </si>
   <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>To verify forget password</t>
+  </si>
+  <si>
+    <t>forgetPassword()</t>
+  </si>
+  <si>
+    <t>16,8</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Sunil,sunil8@mailinator.com,f00bar12,f00bar12,9910881849</t>
-  </si>
-  <si>
-    <t>Forget Password</t>
-  </si>
-  <si>
-    <t>To verify forget password</t>
-  </si>
-  <si>
-    <t>forgetPassword()</t>
+    <t>Sunil,sunil21@mailinator.com,f00bar12,f00bar12,9910881849</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +262,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -397,7 +412,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,19 +472,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,12 +491,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,7 +818,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I6" sqref="I6:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,42 +1656,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1730,60 +1747,60 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="35" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="33"/>
+      <c r="I6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="30"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J8" s="12"/>
     </row>
@@ -1802,8 +1819,8 @@
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1822,15 +1839,15 @@
         <v>28</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -1847,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -1855,50 +1872,50 @@
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>57</v>
+      <c r="I11" s="44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="30"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1915,14 +1932,14 @@
         <v>44</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1935,11 +1952,11 @@
         <v>43</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="42"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1950,17 +1967,17 @@
         <v>51</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="30"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1976,35 +1993,41 @@
       <c r="H16" s="19" t="s">
         <v>55</v>
       </c>
+      <c r="I16" s="29" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
@@ -2013,6 +2036,9 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -226,7 +226,7 @@
     <t>18,8</t>
   </si>
   <si>
-    <t>Sunil,anil2@mailinator.com,f00bar12,f00bar12,9910881849</t>
+    <t>Sunil,anil33@mailinator.com,f00bar12,f00bar12,9910881849</t>
   </si>
   <si>
     <t>PASS</t>
@@ -237,7 +237,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,7 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -294,6 +295,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -483,6 +485,78 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -848,7 +922,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,13 +985,30 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -931,24 +1022,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1299,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I6:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,42 +2224,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2229,58 +2315,60 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="43" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="40"/>
+      <c r="I6" t="s" s="47">
+        <v>71</v>
+      </c>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="41"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2290,15 +2378,17 @@
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" t="s" s="48">
+        <v>71</v>
+      </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -2316,14 +2406,16 @@
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" t="s" s="49">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2339,55 +2431,59 @@
       <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" t="s" s="50">
+        <v>71</v>
+      </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="45"/>
+      <c r="I11" t="s" s="51">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2403,13 +2499,15 @@
       <c r="H13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" t="s" s="52">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2421,10 +2519,12 @@
       <c r="H14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" t="s" s="53">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="42"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2440,10 +2540,12 @@
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" t="s" s="54">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="41"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2561,9 @@
       <c r="H16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" t="s" s="55">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
@@ -2480,7 +2584,9 @@
       <c r="H17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" t="s" s="57">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
@@ -2501,7 +2607,7 @@
       <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" t="s" s="47">
+      <c r="I18" t="s" s="58">
         <v>71</v>
       </c>
     </row>
@@ -2520,6 +2626,9 @@
       </c>
       <c r="H19" s="19" t="s">
         <v>69</v>
+      </c>
+      <c r="I19" t="s" s="59">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -2527,12 +2636,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
@@ -2544,6 +2647,12 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -226,10 +226,79 @@
     <t>18,8</t>
   </si>
   <si>
-    <t>Sunil,anil33@mailinator.com,f00bar12,f00bar12,9910881849</t>
+    <t>To Verify Click on  magic resume india</t>
+  </si>
+  <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>To Verify Click on  magic resume international</t>
+  </si>
+  <si>
+    <t>Click_MRI()</t>
+  </si>
+  <si>
+    <t>Click_MR_International()</t>
+  </si>
+  <si>
+    <t>20,8</t>
+  </si>
+  <si>
+    <t>To verify clicking on Resume Critique</t>
+  </si>
+  <si>
+    <t>click_ResumeCritique()</t>
+  </si>
+  <si>
+    <t>21,8</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Social Profiler</t>
+  </si>
+  <si>
+    <t>To Verify clicking on Visual Resume Premium</t>
+  </si>
+  <si>
+    <t>To verify clicking on View all services</t>
+  </si>
+  <si>
+    <t>To verify clicking on View sample resume</t>
+  </si>
+  <si>
+    <t>click_socialprofiler()</t>
+  </si>
+  <si>
+    <t>click_visual_resume_premium()</t>
+  </si>
+  <si>
+    <t>click_view_all_services()</t>
+  </si>
+  <si>
+    <t>click_view_sample_resume()</t>
+  </si>
+  <si>
+    <t>22,8</t>
+  </si>
+  <si>
+    <t>23,8</t>
+  </si>
+  <si>
+    <t>24,8</t>
+  </si>
+  <si>
+    <t>25,8</t>
+  </si>
+  <si>
+    <t>Sunil,anil34@mailinator.com,f00bar12,f00bar12,9910881849</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Login and Registeration</t>
   </si>
 </sst>
 </file>
@@ -237,7 +306,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,13 +355,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -482,93 +544,93 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
       <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="26">
@@ -875,54 +937,54 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,12 +1035,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,6 +1047,12 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,23 +1085,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1383,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I6:I19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,42 +2290,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2315,60 +2381,60 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="50" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s" s="47">
-        <v>71</v>
-      </c>
-      <c r="J6" s="33"/>
+      <c r="I6" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2378,8 +2444,8 @@
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s" s="48">
-        <v>71</v>
+      <c r="I8" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="J8" s="12"/>
     </row>
@@ -2387,8 +2453,8 @@
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="40" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -2406,16 +2472,16 @@
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s" s="49">
-        <v>71</v>
+      <c r="I9" s="24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2431,8 +2497,8 @@
       <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s" s="50">
-        <v>71</v>
+      <c r="I10" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -2440,50 +2506,50 @@
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s" s="51">
-        <v>71</v>
+      <c r="I11" s="43" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="37"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2499,15 +2565,18 @@
       <c r="H13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s" s="52">
-        <v>71</v>
+      <c r="I13" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2519,12 +2588,13 @@
       <c r="H14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I14" t="s" s="53">
-        <v>71</v>
+      <c r="I14" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2534,18 +2604,19 @@
       <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>70</v>
+      <c r="G15" s="55" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s" s="54">
-        <v>71</v>
+      <c r="I15" s="28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="35"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2561,11 +2632,12 @@
       <c r="H16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s" s="55">
-        <v>71</v>
+      <c r="I16" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
       <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
@@ -2584,11 +2656,12 @@
       <c r="H17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I17" t="s" s="57">
-        <v>71</v>
+      <c r="I17" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="46"/>
       <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2607,12 +2680,15 @@
       <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" t="s" s="58">
-        <v>71</v>
+      <c r="I18" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2624,18 +2700,175 @@
       <c r="F19" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s" s="59">
+      <c r="I19" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>71</v>
       </c>
+      <c r="I20" t="s" s="56">
+        <v>93</v>
+      </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="22"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s" s="57">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" t="s" s="59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s" s="60">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s" s="61">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B26"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -289,16 +289,22 @@
     <t>25,8</t>
   </si>
   <si>
-    <t>Sunil,anil34@mailinator.com,f00bar12,f00bar12,9910881849</t>
+    <t>Login and Registeration</t>
+  </si>
+  <si>
+    <t>To Verify Clicking  on visual resume</t>
+  </si>
+  <si>
+    <t>click_visual_resume()</t>
+  </si>
+  <si>
+    <t>26,8</t>
+  </si>
+  <si>
+    <t>Sunil,anil43@mailinator.com,f00bar12,f00bar12,9910881849</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Login and Registeration</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,30 +526,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -556,81 +538,201 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="26">
@@ -984,7 +1086,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1138,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1053,29 +1158,14 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1089,18 +1179,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1449,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I29" sqref="I6:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,42 +2408,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2381,7 +2499,7 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="50" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -2390,51 +2508,51 @@
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="40"/>
+      <c r="I6" t="s" s="57">
+        <v>96</v>
+      </c>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="44"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="44"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2444,8 +2562,8 @@
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>92</v>
+      <c r="I8" t="s" s="58">
+        <v>96</v>
       </c>
       <c r="J8" s="12"/>
     </row>
@@ -2453,8 +2571,8 @@
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="50" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -2472,16 +2590,16 @@
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>92</v>
+      <c r="I9" t="s" s="59">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2497,8 +2615,8 @@
       <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>92</v>
+      <c r="I10" t="s" s="60">
+        <v>96</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -2506,50 +2624,50 @@
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="43" t="s">
-        <v>92</v>
+      <c r="I11" t="s" s="61">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2565,18 +2683,18 @@
       <c r="H13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>92</v>
+      <c r="I13" t="s" s="62">
+        <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2588,13 +2706,13 @@
       <c r="H14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>92</v>
+      <c r="I14" t="s" s="63">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2604,19 +2722,19 @@
       <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>91</v>
+      <c r="G15" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>92</v>
+      <c r="I15" t="s" s="64">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2632,12 +2750,12 @@
       <c r="H16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>92</v>
+      <c r="I16" t="s" s="65">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
@@ -2656,12 +2774,12 @@
       <c r="H17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>92</v>
+      <c r="I17" t="s" s="67">
+        <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
       <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2680,15 +2798,15 @@
       <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>93</v>
+      <c r="I18" t="s" s="68">
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2706,13 +2824,13 @@
       <c r="H19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>92</v>
+      <c r="I19" t="s" s="69">
+        <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2728,13 +2846,13 @@
       <c r="H20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I20" t="s" s="56">
-        <v>93</v>
+      <c r="I20" t="s" s="70">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2750,13 +2868,13 @@
       <c r="H21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I21" t="s" s="57">
-        <v>93</v>
+      <c r="I21" t="s" s="71">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="5" t="s">
         <v>76</v>
       </c>
@@ -2772,13 +2890,13 @@
       <c r="H22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I22" t="s" s="58">
-        <v>93</v>
+      <c r="I22" t="s" s="72">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="5" t="s">
         <v>79</v>
       </c>
@@ -2794,13 +2912,13 @@
       <c r="H23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I23" t="s" s="59">
-        <v>93</v>
+      <c r="I23" t="s" s="73">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="5" t="s">
         <v>80</v>
       </c>
@@ -2816,13 +2934,13 @@
       <c r="H24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="39" t="s">
-        <v>92</v>
+      <c r="I24" t="s" s="75">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2838,13 +2956,13 @@
       <c r="H25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I25" t="s" s="60">
-        <v>93</v>
+      <c r="I25" t="s" s="76">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="5" t="s">
         <v>82</v>
       </c>
@@ -2860,8 +2978,28 @@
       <c r="H26" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I26" t="s" s="61">
+      <c r="I26" t="s" s="77">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" t="s" s="74">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2869,6 +3007,7 @@
     <mergeCell ref="C19:C26"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
@@ -2880,7 +3019,6 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C14:C16"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="152">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -305,14 +305,178 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>TC_ID10</t>
+  </si>
+  <si>
+    <t>TC_ID11</t>
+  </si>
+  <si>
+    <t>TC_ID12</t>
+  </si>
+  <si>
+    <t>TC_ID13</t>
+  </si>
+  <si>
+    <t>TC_ID14</t>
+  </si>
+  <si>
+    <t>TC_ID15</t>
+  </si>
+  <si>
+    <t>TC_ID16</t>
+  </si>
+  <si>
+    <t>TC_ID17</t>
+  </si>
+  <si>
+    <t>TC_ID18</t>
+  </si>
+  <si>
+    <t>TC_ID19</t>
+  </si>
+  <si>
+    <t>TC_ID20</t>
+  </si>
+  <si>
+    <t>TC_ID21</t>
+  </si>
+  <si>
+    <t>TC_ID22</t>
+  </si>
+  <si>
+    <t>Magic Resume India</t>
+  </si>
+  <si>
+    <t>TC_ID23</t>
+  </si>
+  <si>
+    <t>To Verify  Clicking on Improve Resume</t>
+  </si>
+  <si>
+    <t>To Verify clicking on Magic Resume India Link</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button-Entry Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button-Mid Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button-Senior Level</t>
+  </si>
+  <si>
+    <t>Click_body_Improve_resume_Link()</t>
+  </si>
+  <si>
+    <t>click_MR_India_Button()</t>
+  </si>
+  <si>
+    <t>Click_MR_India_EntryLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_India_MidLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_India_SeniorLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Magic Resume International</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button-Entry Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button-Mid Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button-Senior Level</t>
+  </si>
+  <si>
+    <t>TC_ID24</t>
+  </si>
+  <si>
+    <t>TC_ID25</t>
+  </si>
+  <si>
+    <t>TC_ID26</t>
+  </si>
+  <si>
+    <t>TC_ID27</t>
+  </si>
+  <si>
+    <t>TC_ID28</t>
+  </si>
+  <si>
+    <t>TC_ID29</t>
+  </si>
+  <si>
+    <t>TC_ID30</t>
+  </si>
+  <si>
+    <t>TC_ID31</t>
+  </si>
+  <si>
+    <t>TC_ID32</t>
+  </si>
+  <si>
+    <t>click_MR_Internation_Button()</t>
+  </si>
+  <si>
+    <t>Click_MR_Internation_EntryLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_Internation_MidLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_Internation_SeniorLevel_Tab()</t>
+  </si>
+  <si>
+    <t>27,8</t>
+  </si>
+  <si>
+    <t>28,8</t>
+  </si>
+  <si>
+    <t>29,8</t>
+  </si>
+  <si>
+    <t>30,8</t>
+  </si>
+  <si>
+    <t>31,8</t>
+  </si>
+  <si>
+    <t>32,8</t>
+  </si>
+  <si>
+    <t>33,8</t>
+  </si>
+  <si>
+    <t>34,8</t>
+  </si>
+  <si>
+    <t>35,8</t>
+  </si>
+  <si>
+    <t>36,8</t>
+  </si>
+  <si>
+    <t>click_improve_resume_lindia_ink()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,12 +690,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
@@ -609,130 +767,64 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1086,7 +1178,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,6 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1159,6 +1252,34 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,46 +1300,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1567,883 +1649,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I6:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="71.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="36.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="9.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="26.85546875" collapsed="true"/>
-    <col min="11" max="254" style="7" width="17.28515625" collapsed="true"/>
-    <col min="255" max="255" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="256" max="256" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="257" max="257" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="258" max="258" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="259" max="259" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="260" max="260" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="261" max="261" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="262" max="262" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="263" max="263" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="264" max="264" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="265" max="265" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="266" max="266" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="267" max="510" style="7" width="17.28515625" collapsed="true"/>
-    <col min="511" max="511" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="512" max="512" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="513" max="513" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="514" max="514" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="515" max="515" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="516" max="516" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="517" max="517" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="518" max="518" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="519" max="519" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="520" max="520" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="521" max="521" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="522" max="522" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="523" max="766" style="7" width="17.28515625" collapsed="true"/>
-    <col min="767" max="767" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="768" max="768" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="769" max="769" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="770" max="770" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="771" max="771" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="772" max="772" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="773" max="773" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="774" max="774" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="775" max="775" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="776" max="776" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="777" max="777" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="778" max="778" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="779" max="1022" style="7" width="17.28515625" collapsed="true"/>
-    <col min="1023" max="1023" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="1024" max="1024" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="1025" max="1025" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="1026" max="1026" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="1027" max="1027" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="1028" max="1028" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="1029" max="1029" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="1030" max="1030" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="1031" max="1031" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="1032" max="1032" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1033" max="1033" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="1034" max="1034" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1035" max="1278" style="7" width="17.28515625" collapsed="true"/>
-    <col min="1279" max="1279" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="1280" max="1280" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="1281" max="1281" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="1282" max="1282" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="1283" max="1283" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="1284" max="1284" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="1285" max="1285" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="1286" max="1286" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="1287" max="1287" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="1288" max="1288" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1289" max="1289" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="1290" max="1290" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1291" max="1534" style="7" width="17.28515625" collapsed="true"/>
-    <col min="1535" max="1535" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="1536" max="1536" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="1537" max="1537" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="1538" max="1538" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="1539" max="1539" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="1540" max="1540" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="1541" max="1541" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="1542" max="1542" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="1543" max="1543" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="1544" max="1544" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1545" max="1545" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="1546" max="1546" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1547" max="1790" style="7" width="17.28515625" collapsed="true"/>
-    <col min="1791" max="1791" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="1792" max="1792" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="1793" max="1793" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="1794" max="1794" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="1795" max="1795" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="1796" max="1796" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="1797" max="1797" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="1798" max="1798" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="1799" max="1799" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="1800" max="1800" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1801" max="1801" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="1802" max="1802" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="1803" max="2046" style="7" width="17.28515625" collapsed="true"/>
-    <col min="2047" max="2047" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="2048" max="2048" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="2049" max="2049" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="2050" max="2050" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="2051" max="2051" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="2052" max="2052" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="2053" max="2053" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="2054" max="2054" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="2055" max="2055" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="2056" max="2056" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2057" max="2057" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="2058" max="2058" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2059" max="2302" style="7" width="17.28515625" collapsed="true"/>
-    <col min="2303" max="2303" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="2304" max="2304" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="2305" max="2305" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="2306" max="2306" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="2307" max="2307" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="2308" max="2308" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="2309" max="2309" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="2310" max="2310" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="2311" max="2311" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="2312" max="2312" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2313" max="2313" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="2314" max="2314" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2315" max="2558" style="7" width="17.28515625" collapsed="true"/>
-    <col min="2559" max="2559" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="2560" max="2560" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="2561" max="2561" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="2562" max="2562" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="2563" max="2563" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="2564" max="2564" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="2565" max="2565" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="2566" max="2566" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="2567" max="2567" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="2568" max="2568" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2569" max="2569" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="2570" max="2570" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2571" max="2814" style="7" width="17.28515625" collapsed="true"/>
-    <col min="2815" max="2815" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="2816" max="2816" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="2817" max="2817" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="2818" max="2818" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="2819" max="2819" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="2820" max="2820" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="2821" max="2821" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="2822" max="2822" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="2823" max="2823" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="2824" max="2824" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2825" max="2825" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="2826" max="2826" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="2827" max="3070" style="7" width="17.28515625" collapsed="true"/>
-    <col min="3071" max="3071" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="3072" max="3072" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="3073" max="3073" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="3074" max="3074" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="3075" max="3075" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="3076" max="3076" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="3077" max="3077" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="3078" max="3078" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="3079" max="3079" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="3080" max="3080" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3081" max="3081" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="3082" max="3082" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3083" max="3326" style="7" width="17.28515625" collapsed="true"/>
-    <col min="3327" max="3327" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="3328" max="3328" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="3329" max="3329" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="3330" max="3330" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="3331" max="3331" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="3332" max="3332" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="3333" max="3333" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="3334" max="3334" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="3335" max="3335" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="3336" max="3336" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3337" max="3337" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="3338" max="3338" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3339" max="3582" style="7" width="17.28515625" collapsed="true"/>
-    <col min="3583" max="3583" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="3584" max="3584" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="3585" max="3585" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="3586" max="3586" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="3587" max="3587" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="3588" max="3588" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="3589" max="3589" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="3590" max="3590" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="3591" max="3591" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="3592" max="3592" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3593" max="3593" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="3594" max="3594" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3595" max="3838" style="7" width="17.28515625" collapsed="true"/>
-    <col min="3839" max="3839" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="3840" max="3840" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="3841" max="3841" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="3842" max="3842" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="3843" max="3843" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="3844" max="3844" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="3845" max="3845" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="3846" max="3846" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="3847" max="3847" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="3848" max="3848" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3849" max="3849" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="3850" max="3850" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="3851" max="4094" style="7" width="17.28515625" collapsed="true"/>
-    <col min="4095" max="4095" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="4096" max="4096" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="4097" max="4097" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="4098" max="4098" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="4099" max="4099" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="4100" max="4100" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="4101" max="4101" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="4102" max="4102" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="4103" max="4103" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="4104" max="4104" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4105" max="4105" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="4106" max="4106" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4107" max="4350" style="7" width="17.28515625" collapsed="true"/>
-    <col min="4351" max="4351" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="4352" max="4352" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="4353" max="4353" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="4354" max="4354" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="4355" max="4355" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="4356" max="4356" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="4357" max="4357" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="4358" max="4358" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="4359" max="4359" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="4360" max="4360" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4361" max="4361" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="4362" max="4362" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4363" max="4606" style="7" width="17.28515625" collapsed="true"/>
-    <col min="4607" max="4607" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="4608" max="4608" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="4609" max="4609" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="4610" max="4610" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="4611" max="4611" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="4612" max="4612" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="4613" max="4613" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="4614" max="4614" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="4615" max="4615" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="4616" max="4616" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4617" max="4617" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="4618" max="4618" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4619" max="4862" style="7" width="17.28515625" collapsed="true"/>
-    <col min="4863" max="4863" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="4864" max="4864" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="4865" max="4865" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="4866" max="4866" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="4867" max="4867" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="4868" max="4868" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="4869" max="4869" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="4870" max="4870" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="4871" max="4871" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="4872" max="4872" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4873" max="4873" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="4874" max="4874" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="4875" max="5118" style="7" width="17.28515625" collapsed="true"/>
-    <col min="5119" max="5119" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="5120" max="5120" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="5121" max="5121" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="5122" max="5122" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="5123" max="5123" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="5124" max="5124" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="5125" max="5125" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="5126" max="5126" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="5127" max="5127" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="5128" max="5128" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5129" max="5129" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="5130" max="5130" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5131" max="5374" style="7" width="17.28515625" collapsed="true"/>
-    <col min="5375" max="5375" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="5376" max="5376" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="5377" max="5377" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="5378" max="5378" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="5379" max="5379" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="5380" max="5380" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="5381" max="5381" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="5382" max="5382" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="5383" max="5383" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="5384" max="5384" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5385" max="5385" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="5386" max="5386" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5387" max="5630" style="7" width="17.28515625" collapsed="true"/>
-    <col min="5631" max="5631" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="5632" max="5632" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="5633" max="5633" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="5634" max="5634" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="5635" max="5635" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="5636" max="5636" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="5637" max="5637" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="5638" max="5638" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="5639" max="5639" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="5640" max="5640" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5641" max="5641" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="5642" max="5642" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5643" max="5886" style="7" width="17.28515625" collapsed="true"/>
-    <col min="5887" max="5887" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="5888" max="5888" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="5889" max="5889" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="5890" max="5890" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="5891" max="5891" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="5892" max="5892" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="5893" max="5893" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="5894" max="5894" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="5895" max="5895" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="5896" max="5896" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5897" max="5897" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="5898" max="5898" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="5899" max="6142" style="7" width="17.28515625" collapsed="true"/>
-    <col min="6143" max="6143" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="6144" max="6144" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="6145" max="6145" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="6146" max="6146" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="6147" max="6147" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="6148" max="6148" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="6149" max="6149" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="6150" max="6150" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="6151" max="6151" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="6152" max="6152" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6153" max="6153" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="6154" max="6154" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6155" max="6398" style="7" width="17.28515625" collapsed="true"/>
-    <col min="6399" max="6399" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="6400" max="6400" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="6401" max="6401" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="6402" max="6402" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="6403" max="6403" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="6404" max="6404" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="6405" max="6405" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="6406" max="6406" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="6407" max="6407" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="6408" max="6408" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6409" max="6409" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="6410" max="6410" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6411" max="6654" style="7" width="17.28515625" collapsed="true"/>
-    <col min="6655" max="6655" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="6656" max="6656" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="6657" max="6657" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="6658" max="6658" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="6659" max="6659" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="6660" max="6660" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="6661" max="6661" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="6662" max="6662" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="6663" max="6663" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="6664" max="6664" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6665" max="6665" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="6666" max="6666" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6667" max="6910" style="7" width="17.28515625" collapsed="true"/>
-    <col min="6911" max="6911" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="6912" max="6912" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="6913" max="6913" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="6914" max="6914" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="6915" max="6915" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="6916" max="6916" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="6917" max="6917" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="6918" max="6918" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="6919" max="6919" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="6920" max="6920" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6921" max="6921" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="6922" max="6922" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="6923" max="7166" style="7" width="17.28515625" collapsed="true"/>
-    <col min="7167" max="7167" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="7168" max="7168" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="7169" max="7169" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="7170" max="7170" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="7171" max="7171" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="7172" max="7172" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="7173" max="7173" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="7174" max="7174" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="7175" max="7175" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="7176" max="7176" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7177" max="7177" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="7178" max="7178" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7179" max="7422" style="7" width="17.28515625" collapsed="true"/>
-    <col min="7423" max="7423" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="7424" max="7424" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="7425" max="7425" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="7426" max="7426" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="7427" max="7427" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="7428" max="7428" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="7429" max="7429" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="7430" max="7430" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="7431" max="7431" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="7432" max="7432" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7433" max="7433" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="7434" max="7434" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7435" max="7678" style="7" width="17.28515625" collapsed="true"/>
-    <col min="7679" max="7679" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="7680" max="7680" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="7681" max="7681" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="7682" max="7682" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="7683" max="7683" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="7684" max="7684" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="7685" max="7685" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="7686" max="7686" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="7687" max="7687" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="7688" max="7688" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7689" max="7689" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="7690" max="7690" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7691" max="7934" style="7" width="17.28515625" collapsed="true"/>
-    <col min="7935" max="7935" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="7936" max="7936" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="7937" max="7937" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="7938" max="7938" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="7939" max="7939" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="7940" max="7940" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="7941" max="7941" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="7942" max="7942" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="7943" max="7943" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="7944" max="7944" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7945" max="7945" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="7946" max="7946" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="7947" max="8190" style="7" width="17.28515625" collapsed="true"/>
-    <col min="8191" max="8191" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="8192" max="8192" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="8193" max="8193" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="8194" max="8194" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="8195" max="8195" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="8196" max="8196" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="8197" max="8197" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="8198" max="8198" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="8199" max="8199" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="8200" max="8200" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8201" max="8201" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="8202" max="8202" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8203" max="8446" style="7" width="17.28515625" collapsed="true"/>
-    <col min="8447" max="8447" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="8448" max="8448" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="8449" max="8449" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="8450" max="8450" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="8451" max="8451" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="8452" max="8452" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="8453" max="8453" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="8454" max="8454" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="8455" max="8455" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="8456" max="8456" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8457" max="8457" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="8458" max="8458" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8459" max="8702" style="7" width="17.28515625" collapsed="true"/>
-    <col min="8703" max="8703" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="8704" max="8704" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="8705" max="8705" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="8706" max="8706" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="8707" max="8707" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="8708" max="8708" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="8709" max="8709" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="8710" max="8710" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="8711" max="8711" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="8712" max="8712" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8713" max="8713" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="8714" max="8714" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8715" max="8958" style="7" width="17.28515625" collapsed="true"/>
-    <col min="8959" max="8959" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="8960" max="8960" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="8961" max="8961" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="8962" max="8962" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="8963" max="8963" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="8964" max="8964" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="8965" max="8965" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="8966" max="8966" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="8967" max="8967" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="8968" max="8968" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8969" max="8969" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="8970" max="8970" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="8971" max="9214" style="7" width="17.28515625" collapsed="true"/>
-    <col min="9215" max="9215" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="9216" max="9216" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="9217" max="9217" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="9218" max="9218" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="9219" max="9219" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="9220" max="9220" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="9221" max="9221" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="9222" max="9222" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="9223" max="9223" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="9224" max="9224" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9225" max="9225" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="9226" max="9226" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9227" max="9470" style="7" width="17.28515625" collapsed="true"/>
-    <col min="9471" max="9471" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="9472" max="9472" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="9473" max="9473" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="9474" max="9474" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="9475" max="9475" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="9476" max="9476" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="9477" max="9477" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="9478" max="9478" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="9479" max="9479" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="9480" max="9480" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9481" max="9481" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="9482" max="9482" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9483" max="9726" style="7" width="17.28515625" collapsed="true"/>
-    <col min="9727" max="9727" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="9728" max="9728" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="9729" max="9729" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="9730" max="9730" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="9731" max="9731" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="9732" max="9732" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="9733" max="9733" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="9734" max="9734" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="9735" max="9735" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="9736" max="9736" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9737" max="9737" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="9738" max="9738" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9739" max="9982" style="7" width="17.28515625" collapsed="true"/>
-    <col min="9983" max="9983" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="9984" max="9984" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="9985" max="9985" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="9986" max="9986" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="9987" max="9987" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="9988" max="9988" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="9989" max="9989" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="9990" max="9990" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="9991" max="9991" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="9992" max="9992" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9993" max="9993" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="9994" max="9994" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="9995" max="10238" style="7" width="17.28515625" collapsed="true"/>
-    <col min="10239" max="10239" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="10240" max="10240" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="10241" max="10241" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="10242" max="10242" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="10243" max="10243" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="10244" max="10244" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="10245" max="10245" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="10246" max="10246" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="10247" max="10247" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="10248" max="10248" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="10249" max="10249" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="10250" max="10250" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="10251" max="10494" style="7" width="17.28515625" collapsed="true"/>
-    <col min="10495" max="10495" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="10496" max="10496" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="10497" max="10497" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="10498" max="10498" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="10499" max="10499" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="10500" max="10500" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="10501" max="10501" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="10502" max="10502" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="10503" max="10503" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="10504" max="10504" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="10505" max="10505" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="10506" max="10506" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="10507" max="10750" style="7" width="17.28515625" collapsed="true"/>
-    <col min="10751" max="10751" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="10752" max="10752" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="10753" max="10753" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="10754" max="10754" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="10755" max="10755" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="10756" max="10756" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="10757" max="10757" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="10758" max="10758" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="10759" max="10759" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="10760" max="10760" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="10761" max="10761" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="10762" max="10762" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="10763" max="11006" style="7" width="17.28515625" collapsed="true"/>
-    <col min="11007" max="11007" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="11008" max="11008" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="11009" max="11009" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="11010" max="11010" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="11011" max="11011" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="11012" max="11012" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="11013" max="11013" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="11014" max="11014" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="11015" max="11015" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="11016" max="11016" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11017" max="11017" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="11018" max="11018" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11019" max="11262" style="7" width="17.28515625" collapsed="true"/>
-    <col min="11263" max="11263" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="11264" max="11264" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="11265" max="11265" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="11266" max="11266" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="11267" max="11267" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="11268" max="11268" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="11269" max="11269" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="11270" max="11270" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="11271" max="11271" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="11272" max="11272" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11273" max="11273" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="11274" max="11274" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11275" max="11518" style="7" width="17.28515625" collapsed="true"/>
-    <col min="11519" max="11519" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="11520" max="11520" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="11521" max="11521" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="11522" max="11522" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="11523" max="11523" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="11524" max="11524" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="11525" max="11525" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="11526" max="11526" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="11527" max="11527" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="11528" max="11528" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11529" max="11529" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="11530" max="11530" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11531" max="11774" style="7" width="17.28515625" collapsed="true"/>
-    <col min="11775" max="11775" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="11776" max="11776" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="11777" max="11777" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="11778" max="11778" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="11779" max="11779" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="11780" max="11780" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="11781" max="11781" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="11782" max="11782" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="11783" max="11783" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="11784" max="11784" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11785" max="11785" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="11786" max="11786" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="11787" max="12030" style="7" width="17.28515625" collapsed="true"/>
-    <col min="12031" max="12031" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="12032" max="12032" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="12033" max="12033" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="12034" max="12034" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="12035" max="12035" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="12036" max="12036" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="12037" max="12037" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="12038" max="12038" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="12039" max="12039" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="12040" max="12040" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12041" max="12041" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="12042" max="12042" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12043" max="12286" style="7" width="17.28515625" collapsed="true"/>
-    <col min="12287" max="12287" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="12288" max="12288" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="12289" max="12289" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="12290" max="12290" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="12291" max="12291" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="12292" max="12292" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="12293" max="12293" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="12294" max="12294" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="12295" max="12295" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="12296" max="12296" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12297" max="12297" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="12298" max="12298" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12299" max="12542" style="7" width="17.28515625" collapsed="true"/>
-    <col min="12543" max="12543" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="12544" max="12544" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="12545" max="12545" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="12546" max="12546" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="12547" max="12547" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="12548" max="12548" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="12549" max="12549" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="12550" max="12550" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="12551" max="12551" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="12552" max="12552" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12553" max="12553" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="12554" max="12554" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12555" max="12798" style="7" width="17.28515625" collapsed="true"/>
-    <col min="12799" max="12799" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="12800" max="12800" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="12801" max="12801" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="12802" max="12802" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="12803" max="12803" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="12804" max="12804" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="12805" max="12805" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="12806" max="12806" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="12807" max="12807" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="12808" max="12808" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12809" max="12809" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="12810" max="12810" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="12811" max="13054" style="7" width="17.28515625" collapsed="true"/>
-    <col min="13055" max="13055" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="13056" max="13056" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="13057" max="13057" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="13058" max="13058" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="13059" max="13059" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="13060" max="13060" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="13061" max="13061" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="13062" max="13062" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="13063" max="13063" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="13064" max="13064" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13065" max="13065" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="13066" max="13066" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13067" max="13310" style="7" width="17.28515625" collapsed="true"/>
-    <col min="13311" max="13311" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="13312" max="13312" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="13313" max="13313" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="13314" max="13314" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="13315" max="13315" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="13316" max="13316" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="13317" max="13317" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="13318" max="13318" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="13319" max="13319" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="13320" max="13320" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13321" max="13321" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="13322" max="13322" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13323" max="13566" style="7" width="17.28515625" collapsed="true"/>
-    <col min="13567" max="13567" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="13568" max="13568" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="13569" max="13569" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="13570" max="13570" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="13571" max="13571" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="13572" max="13572" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="13573" max="13573" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="13574" max="13574" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="13575" max="13575" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="13576" max="13576" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13577" max="13577" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="13578" max="13578" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13579" max="13822" style="7" width="17.28515625" collapsed="true"/>
-    <col min="13823" max="13823" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="13824" max="13824" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="13825" max="13825" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="13826" max="13826" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="13827" max="13827" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="13828" max="13828" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="13829" max="13829" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="13830" max="13830" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="13831" max="13831" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="13832" max="13832" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13833" max="13833" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="13834" max="13834" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="13835" max="14078" style="7" width="17.28515625" collapsed="true"/>
-    <col min="14079" max="14079" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="14080" max="14080" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="14081" max="14081" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="14082" max="14082" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="14083" max="14083" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="14084" max="14084" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="14085" max="14085" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="14086" max="14086" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="14087" max="14087" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="14088" max="14088" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14089" max="14089" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="14090" max="14090" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14091" max="14334" style="7" width="17.28515625" collapsed="true"/>
-    <col min="14335" max="14335" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="14336" max="14336" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="14337" max="14337" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="14338" max="14338" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="14339" max="14339" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="14340" max="14340" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="14341" max="14341" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="14342" max="14342" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="14343" max="14343" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="14344" max="14344" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14345" max="14345" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="14346" max="14346" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14347" max="14590" style="7" width="17.28515625" collapsed="true"/>
-    <col min="14591" max="14591" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="14592" max="14592" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="14593" max="14593" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="14594" max="14594" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="14595" max="14595" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="14596" max="14596" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="14597" max="14597" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="14598" max="14598" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="14599" max="14599" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="14600" max="14600" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14601" max="14601" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="14602" max="14602" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14603" max="14846" style="7" width="17.28515625" collapsed="true"/>
-    <col min="14847" max="14847" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="14848" max="14848" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="14849" max="14849" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="14850" max="14850" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="14851" max="14851" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="14852" max="14852" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="14853" max="14853" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="14854" max="14854" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="14855" max="14855" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="14856" max="14856" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14857" max="14857" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="14858" max="14858" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="14859" max="15102" style="7" width="17.28515625" collapsed="true"/>
-    <col min="15103" max="15103" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="15104" max="15104" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="15105" max="15105" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="15106" max="15106" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="15107" max="15107" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="15108" max="15108" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="15109" max="15109" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="15110" max="15110" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="15111" max="15111" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="15112" max="15112" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15113" max="15113" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="15114" max="15114" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15115" max="15358" style="7" width="17.28515625" collapsed="true"/>
-    <col min="15359" max="15359" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="15360" max="15360" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="15361" max="15361" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="15362" max="15362" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="15363" max="15363" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="15364" max="15364" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="15365" max="15365" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="15366" max="15366" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="15367" max="15367" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="15368" max="15368" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15369" max="15369" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="15370" max="15370" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15371" max="15614" style="7" width="17.28515625" collapsed="true"/>
-    <col min="15615" max="15615" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="15616" max="15616" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="15617" max="15617" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="15618" max="15618" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="15619" max="15619" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="15620" max="15620" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="15621" max="15621" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="15622" max="15622" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="15623" max="15623" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="15624" max="15624" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15625" max="15625" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="15626" max="15626" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15627" max="15870" style="7" width="17.28515625" collapsed="true"/>
-    <col min="15871" max="15871" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="15872" max="15872" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="15873" max="15873" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="15874" max="15874" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="15875" max="15875" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="15876" max="15876" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="15877" max="15877" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="15878" max="15878" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="15879" max="15879" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="15880" max="15880" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15881" max="15881" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="15882" max="15882" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="15883" max="16126" style="7" width="17.28515625" collapsed="true"/>
-    <col min="16127" max="16127" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="16128" max="16128" customWidth="true" style="7" width="19.0" collapsed="true"/>
-    <col min="16129" max="16129" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
-    <col min="16130" max="16130" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
-    <col min="16131" max="16131" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
-    <col min="16132" max="16132" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
-    <col min="16133" max="16133" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
-    <col min="16134" max="16134" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
-    <col min="16135" max="16135" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
-    <col min="16136" max="16136" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="16137" max="16137" customWidth="true" style="7" width="14.140625" collapsed="true"/>
-    <col min="16138" max="16138" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
-    <col min="16139" max="16384" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="71.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="254" width="17.28515625" style="7" collapsed="1"/>
+    <col min="255" max="255" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="256" max="256" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="257" max="257" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="258" max="258" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="259" max="259" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="260" max="260" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="261" max="261" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="262" max="262" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="263" max="263" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="264" max="264" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="265" max="265" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="266" max="266" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="267" max="510" width="17.28515625" style="7" collapsed="1"/>
+    <col min="511" max="511" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="512" max="512" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="513" max="513" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="514" max="514" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="515" max="515" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="516" max="516" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="517" max="517" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="518" max="518" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="519" max="519" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="520" max="520" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="521" max="521" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="522" max="522" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="523" max="766" width="17.28515625" style="7" collapsed="1"/>
+    <col min="767" max="767" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="768" max="768" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="769" max="769" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="770" max="770" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="771" max="771" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="772" max="772" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="773" max="773" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="774" max="774" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="775" max="775" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="776" max="776" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="777" max="777" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="778" max="778" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="779" max="1022" width="17.28515625" style="7" collapsed="1"/>
+    <col min="1023" max="1023" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1024" max="1024" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="1025" max="1025" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1026" max="1026" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1027" max="1027" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1028" max="1028" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1029" max="1029" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1030" max="1030" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1031" max="1031" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="1032" max="1032" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1033" max="1033" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1034" max="1034" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1035" max="1278" width="17.28515625" style="7" collapsed="1"/>
+    <col min="1279" max="1279" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1280" max="1280" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="1281" max="1281" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1282" max="1282" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1283" max="1283" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1284" max="1284" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1285" max="1285" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1286" max="1286" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1287" max="1287" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="1288" max="1288" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1289" max="1289" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1290" max="1290" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1291" max="1534" width="17.28515625" style="7" collapsed="1"/>
+    <col min="1535" max="1535" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1536" max="1536" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="1537" max="1537" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1538" max="1538" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1539" max="1539" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1540" max="1540" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1541" max="1541" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1542" max="1542" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1543" max="1543" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="1544" max="1544" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1545" max="1545" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1546" max="1546" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1547" max="1790" width="17.28515625" style="7" collapsed="1"/>
+    <col min="1791" max="1791" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1792" max="1792" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="1793" max="1793" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1794" max="1794" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1795" max="1795" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1796" max="1796" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="1797" max="1797" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1798" max="1798" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1799" max="1799" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="1800" max="1800" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1801" max="1801" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1802" max="1802" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="1803" max="2046" width="17.28515625" style="7" collapsed="1"/>
+    <col min="2047" max="2047" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2048" max="2048" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="2049" max="2049" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2050" max="2050" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2051" max="2051" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2052" max="2052" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2053" max="2053" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2054" max="2054" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2055" max="2055" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="2056" max="2056" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2057" max="2057" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2058" max="2058" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2059" max="2302" width="17.28515625" style="7" collapsed="1"/>
+    <col min="2303" max="2303" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2304" max="2304" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="2305" max="2305" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2306" max="2306" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2307" max="2307" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2308" max="2308" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2309" max="2309" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2310" max="2310" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2311" max="2311" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="2312" max="2312" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2313" max="2313" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2314" max="2314" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2315" max="2558" width="17.28515625" style="7" collapsed="1"/>
+    <col min="2559" max="2559" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2560" max="2560" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="2561" max="2561" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2562" max="2562" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2563" max="2563" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2564" max="2564" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2565" max="2565" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2566" max="2566" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2567" max="2567" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="2568" max="2568" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2569" max="2569" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2570" max="2570" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2571" max="2814" width="17.28515625" style="7" collapsed="1"/>
+    <col min="2815" max="2815" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2816" max="2816" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="2817" max="2817" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2818" max="2818" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2819" max="2819" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2820" max="2820" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2821" max="2821" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2822" max="2822" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2823" max="2823" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="2824" max="2824" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2825" max="2825" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="2826" max="2826" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="2827" max="3070" width="17.28515625" style="7" collapsed="1"/>
+    <col min="3071" max="3071" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3072" max="3072" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="3073" max="3073" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3074" max="3074" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3075" max="3075" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3076" max="3076" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3077" max="3077" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3078" max="3078" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3079" max="3079" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="3080" max="3080" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3081" max="3081" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3082" max="3082" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3083" max="3326" width="17.28515625" style="7" collapsed="1"/>
+    <col min="3327" max="3327" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3328" max="3328" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="3329" max="3329" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3330" max="3330" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3331" max="3331" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3332" max="3332" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3333" max="3333" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3334" max="3334" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3335" max="3335" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="3336" max="3336" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3337" max="3337" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3338" max="3338" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3339" max="3582" width="17.28515625" style="7" collapsed="1"/>
+    <col min="3583" max="3583" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3584" max="3584" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="3585" max="3585" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3586" max="3586" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3587" max="3587" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3588" max="3588" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3589" max="3589" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3590" max="3590" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3591" max="3591" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="3592" max="3592" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3593" max="3593" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3594" max="3594" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3595" max="3838" width="17.28515625" style="7" collapsed="1"/>
+    <col min="3839" max="3839" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3840" max="3840" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="3841" max="3841" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3842" max="3842" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3843" max="3843" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3844" max="3844" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3845" max="3845" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3846" max="3846" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3847" max="3847" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="3848" max="3848" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3849" max="3849" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3850" max="3850" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="3851" max="4094" width="17.28515625" style="7" collapsed="1"/>
+    <col min="4095" max="4095" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4096" max="4096" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="4097" max="4097" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4098" max="4098" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4099" max="4099" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4100" max="4100" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4101" max="4101" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4102" max="4102" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4103" max="4103" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="4104" max="4104" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4105" max="4105" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4106" max="4106" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4107" max="4350" width="17.28515625" style="7" collapsed="1"/>
+    <col min="4351" max="4351" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4352" max="4352" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="4353" max="4353" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4354" max="4354" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4355" max="4355" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4356" max="4356" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4357" max="4357" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4358" max="4358" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4359" max="4359" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="4360" max="4360" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4361" max="4361" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4362" max="4362" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4363" max="4606" width="17.28515625" style="7" collapsed="1"/>
+    <col min="4607" max="4607" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4608" max="4608" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="4609" max="4609" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4610" max="4610" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4611" max="4611" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4612" max="4612" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4613" max="4613" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4614" max="4614" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4615" max="4615" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="4616" max="4616" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4617" max="4617" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4618" max="4618" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4619" max="4862" width="17.28515625" style="7" collapsed="1"/>
+    <col min="4863" max="4863" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4864" max="4864" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="4865" max="4865" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4866" max="4866" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4867" max="4867" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4868" max="4868" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4869" max="4869" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4870" max="4870" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4871" max="4871" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="4872" max="4872" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4873" max="4873" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="4874" max="4874" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4875" max="5118" width="17.28515625" style="7" collapsed="1"/>
+    <col min="5119" max="5119" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5120" max="5120" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="5121" max="5121" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5122" max="5122" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5123" max="5123" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5124" max="5124" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5125" max="5125" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5126" max="5126" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5127" max="5127" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="5128" max="5128" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5129" max="5129" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="5130" max="5130" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5131" max="5374" width="17.28515625" style="7" collapsed="1"/>
+    <col min="5375" max="5375" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5376" max="5376" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="5377" max="5377" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5378" max="5378" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5379" max="5379" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5380" max="5380" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5381" max="5381" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5382" max="5382" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5383" max="5383" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="5384" max="5384" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5385" max="5385" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="5386" max="5386" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5387" max="5630" width="17.28515625" style="7" collapsed="1"/>
+    <col min="5631" max="5631" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5632" max="5632" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="5633" max="5633" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5634" max="5634" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5635" max="5635" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5636" max="5636" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5637" max="5637" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5638" max="5638" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5639" max="5639" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="5640" max="5640" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5641" max="5641" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="5642" max="5642" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5643" max="5886" width="17.28515625" style="7" collapsed="1"/>
+    <col min="5887" max="5887" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5888" max="5888" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="5889" max="5889" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5890" max="5890" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5891" max="5891" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5892" max="5892" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5893" max="5893" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5894" max="5894" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5895" max="5895" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="5896" max="5896" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5897" max="5897" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="5898" max="5898" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="5899" max="6142" width="17.28515625" style="7" collapsed="1"/>
+    <col min="6143" max="6143" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6144" max="6144" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="6145" max="6145" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6146" max="6146" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6147" max="6147" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6148" max="6148" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6149" max="6149" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6150" max="6150" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6151" max="6151" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="6152" max="6152" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6153" max="6153" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6154" max="6154" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6155" max="6398" width="17.28515625" style="7" collapsed="1"/>
+    <col min="6399" max="6399" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6400" max="6400" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="6401" max="6401" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6402" max="6402" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6403" max="6403" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6404" max="6404" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6405" max="6405" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6406" max="6406" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6407" max="6407" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="6408" max="6408" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6409" max="6409" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6410" max="6410" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6411" max="6654" width="17.28515625" style="7" collapsed="1"/>
+    <col min="6655" max="6655" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6656" max="6656" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="6657" max="6657" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6658" max="6658" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6659" max="6659" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6660" max="6660" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6661" max="6661" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6662" max="6662" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6663" max="6663" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="6664" max="6664" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6665" max="6665" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6666" max="6666" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6667" max="6910" width="17.28515625" style="7" collapsed="1"/>
+    <col min="6911" max="6911" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6912" max="6912" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="6913" max="6913" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6914" max="6914" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6915" max="6915" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6916" max="6916" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6917" max="6917" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6918" max="6918" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6919" max="6919" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="6920" max="6920" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6921" max="6921" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6922" max="6922" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="6923" max="7166" width="17.28515625" style="7" collapsed="1"/>
+    <col min="7167" max="7167" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7168" max="7168" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="7169" max="7169" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7170" max="7170" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7171" max="7171" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7172" max="7172" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7173" max="7173" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7174" max="7174" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7175" max="7175" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="7176" max="7176" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7177" max="7177" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="7178" max="7178" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7179" max="7422" width="17.28515625" style="7" collapsed="1"/>
+    <col min="7423" max="7423" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7424" max="7424" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="7425" max="7425" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7426" max="7426" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7427" max="7427" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7428" max="7428" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7429" max="7429" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7430" max="7430" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7431" max="7431" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="7432" max="7432" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7433" max="7433" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="7434" max="7434" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7435" max="7678" width="17.28515625" style="7" collapsed="1"/>
+    <col min="7679" max="7679" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7680" max="7680" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="7681" max="7681" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7682" max="7682" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7683" max="7683" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7684" max="7684" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7685" max="7685" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7686" max="7686" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7687" max="7687" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="7688" max="7688" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7689" max="7689" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="7690" max="7690" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7691" max="7934" width="17.28515625" style="7" collapsed="1"/>
+    <col min="7935" max="7935" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7936" max="7936" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="7937" max="7937" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7938" max="7938" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7939" max="7939" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7940" max="7940" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="7941" max="7941" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7942" max="7942" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7943" max="7943" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="7944" max="7944" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7945" max="7945" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="7946" max="7946" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="7947" max="8190" width="17.28515625" style="7" collapsed="1"/>
+    <col min="8191" max="8191" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8192" max="8192" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="8193" max="8193" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8194" max="8194" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8195" max="8195" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8196" max="8196" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8197" max="8197" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8198" max="8198" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8199" max="8199" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="8200" max="8200" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8201" max="8201" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="8202" max="8202" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8203" max="8446" width="17.28515625" style="7" collapsed="1"/>
+    <col min="8447" max="8447" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8448" max="8448" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="8449" max="8449" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8450" max="8450" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8451" max="8451" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8452" max="8452" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8453" max="8453" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8454" max="8454" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8455" max="8455" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="8456" max="8456" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8457" max="8457" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="8458" max="8458" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8459" max="8702" width="17.28515625" style="7" collapsed="1"/>
+    <col min="8703" max="8703" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8704" max="8704" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="8705" max="8705" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8706" max="8706" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8707" max="8707" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8708" max="8708" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8709" max="8709" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8710" max="8710" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8711" max="8711" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="8712" max="8712" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8713" max="8713" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="8714" max="8714" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8715" max="8958" width="17.28515625" style="7" collapsed="1"/>
+    <col min="8959" max="8959" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8960" max="8960" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="8961" max="8961" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8962" max="8962" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8963" max="8963" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8964" max="8964" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8965" max="8965" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8966" max="8966" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8967" max="8967" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="8968" max="8968" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8969" max="8969" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="8970" max="8970" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="8971" max="9214" width="17.28515625" style="7" collapsed="1"/>
+    <col min="9215" max="9215" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9216" max="9216" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="9217" max="9217" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9218" max="9218" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9219" max="9219" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9220" max="9220" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9221" max="9221" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9222" max="9222" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9223" max="9223" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="9224" max="9224" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9225" max="9225" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="9226" max="9226" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9227" max="9470" width="17.28515625" style="7" collapsed="1"/>
+    <col min="9471" max="9471" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9472" max="9472" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="9473" max="9473" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9474" max="9474" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9475" max="9475" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9476" max="9476" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9477" max="9477" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9478" max="9478" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9479" max="9479" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="9480" max="9480" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9481" max="9481" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="9482" max="9482" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9483" max="9726" width="17.28515625" style="7" collapsed="1"/>
+    <col min="9727" max="9727" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9728" max="9728" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="9729" max="9729" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9730" max="9730" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9731" max="9731" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9732" max="9732" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9733" max="9733" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9734" max="9734" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9735" max="9735" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="9736" max="9736" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9737" max="9737" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="9738" max="9738" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9739" max="9982" width="17.28515625" style="7" collapsed="1"/>
+    <col min="9983" max="9983" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9984" max="9984" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="9985" max="9985" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9986" max="9986" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9987" max="9987" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9988" max="9988" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9989" max="9989" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9990" max="9990" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9991" max="9991" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="9992" max="9992" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9993" max="9993" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="9994" max="9994" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="9995" max="10238" width="17.28515625" style="7" collapsed="1"/>
+    <col min="10239" max="10239" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10240" max="10240" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="10241" max="10241" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10242" max="10242" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10243" max="10243" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10244" max="10244" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10245" max="10245" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10246" max="10246" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10247" max="10247" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="10248" max="10248" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10249" max="10249" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="10250" max="10250" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10251" max="10494" width="17.28515625" style="7" collapsed="1"/>
+    <col min="10495" max="10495" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10496" max="10496" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="10497" max="10497" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10498" max="10498" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10499" max="10499" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10500" max="10500" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10501" max="10501" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10502" max="10502" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10503" max="10503" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="10504" max="10504" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10505" max="10505" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="10506" max="10506" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10507" max="10750" width="17.28515625" style="7" collapsed="1"/>
+    <col min="10751" max="10751" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10752" max="10752" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="10753" max="10753" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10754" max="10754" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10755" max="10755" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10756" max="10756" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10757" max="10757" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10758" max="10758" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10759" max="10759" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="10760" max="10760" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10761" max="10761" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="10762" max="10762" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10763" max="11006" width="17.28515625" style="7" collapsed="1"/>
+    <col min="11007" max="11007" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11008" max="11008" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="11009" max="11009" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11010" max="11010" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11011" max="11011" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11012" max="11012" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11013" max="11013" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11014" max="11014" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11015" max="11015" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="11016" max="11016" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11017" max="11017" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="11018" max="11018" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11019" max="11262" width="17.28515625" style="7" collapsed="1"/>
+    <col min="11263" max="11263" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11264" max="11264" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="11265" max="11265" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11266" max="11266" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11267" max="11267" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11268" max="11268" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11269" max="11269" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11270" max="11270" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11271" max="11271" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="11272" max="11272" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11273" max="11273" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="11274" max="11274" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11275" max="11518" width="17.28515625" style="7" collapsed="1"/>
+    <col min="11519" max="11519" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11520" max="11520" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="11521" max="11521" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11522" max="11522" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11523" max="11523" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11524" max="11524" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11525" max="11525" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11526" max="11526" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11527" max="11527" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="11528" max="11528" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11529" max="11529" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="11530" max="11530" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11531" max="11774" width="17.28515625" style="7" collapsed="1"/>
+    <col min="11775" max="11775" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11776" max="11776" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="11777" max="11777" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11778" max="11778" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11779" max="11779" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11780" max="11780" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11781" max="11781" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11782" max="11782" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11783" max="11783" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="11784" max="11784" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11785" max="11785" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="11786" max="11786" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="11787" max="12030" width="17.28515625" style="7" collapsed="1"/>
+    <col min="12031" max="12031" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12032" max="12032" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="12033" max="12033" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12034" max="12034" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12035" max="12035" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12036" max="12036" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12037" max="12037" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12038" max="12038" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12039" max="12039" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="12040" max="12040" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12041" max="12041" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="12042" max="12042" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12043" max="12286" width="17.28515625" style="7" collapsed="1"/>
+    <col min="12287" max="12287" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12288" max="12288" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="12289" max="12289" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12290" max="12290" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12291" max="12291" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12292" max="12292" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12293" max="12293" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12294" max="12294" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12295" max="12295" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="12296" max="12296" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12297" max="12297" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="12298" max="12298" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12299" max="12542" width="17.28515625" style="7" collapsed="1"/>
+    <col min="12543" max="12543" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12544" max="12544" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="12545" max="12545" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12546" max="12546" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12547" max="12547" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12548" max="12548" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12549" max="12549" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12550" max="12550" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12551" max="12551" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="12552" max="12552" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12553" max="12553" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="12554" max="12554" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12555" max="12798" width="17.28515625" style="7" collapsed="1"/>
+    <col min="12799" max="12799" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12800" max="12800" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="12801" max="12801" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12802" max="12802" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12803" max="12803" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12804" max="12804" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12805" max="12805" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12806" max="12806" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12807" max="12807" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="12808" max="12808" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12809" max="12809" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="12810" max="12810" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="12811" max="13054" width="17.28515625" style="7" collapsed="1"/>
+    <col min="13055" max="13055" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13056" max="13056" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="13057" max="13057" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13058" max="13058" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13059" max="13059" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13060" max="13060" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13061" max="13061" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13062" max="13062" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13063" max="13063" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="13064" max="13064" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13065" max="13065" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="13066" max="13066" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13067" max="13310" width="17.28515625" style="7" collapsed="1"/>
+    <col min="13311" max="13311" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13312" max="13312" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="13313" max="13313" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13314" max="13314" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13315" max="13315" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13316" max="13316" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13317" max="13317" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13318" max="13318" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13319" max="13319" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="13320" max="13320" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13321" max="13321" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="13322" max="13322" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13323" max="13566" width="17.28515625" style="7" collapsed="1"/>
+    <col min="13567" max="13567" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13568" max="13568" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="13569" max="13569" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13570" max="13570" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13571" max="13571" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13572" max="13572" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13573" max="13573" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13574" max="13574" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13575" max="13575" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="13576" max="13576" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13577" max="13577" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="13578" max="13578" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13579" max="13822" width="17.28515625" style="7" collapsed="1"/>
+    <col min="13823" max="13823" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13824" max="13824" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="13825" max="13825" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13826" max="13826" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13827" max="13827" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13828" max="13828" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13829" max="13829" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13830" max="13830" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13831" max="13831" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="13832" max="13832" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13833" max="13833" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="13834" max="13834" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="13835" max="14078" width="17.28515625" style="7" collapsed="1"/>
+    <col min="14079" max="14079" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14080" max="14080" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="14081" max="14081" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14082" max="14082" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14083" max="14083" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14084" max="14084" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14085" max="14085" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14086" max="14086" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14087" max="14087" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="14088" max="14088" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14089" max="14089" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="14090" max="14090" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14091" max="14334" width="17.28515625" style="7" collapsed="1"/>
+    <col min="14335" max="14335" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14336" max="14336" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="14337" max="14337" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14338" max="14338" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14339" max="14339" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14340" max="14340" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14341" max="14341" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14342" max="14342" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14343" max="14343" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="14344" max="14344" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14345" max="14345" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="14346" max="14346" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14347" max="14590" width="17.28515625" style="7" collapsed="1"/>
+    <col min="14591" max="14591" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14592" max="14592" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="14593" max="14593" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14594" max="14594" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14595" max="14595" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14596" max="14596" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14597" max="14597" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14598" max="14598" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14599" max="14599" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="14600" max="14600" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14601" max="14601" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="14602" max="14602" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14603" max="14846" width="17.28515625" style="7" collapsed="1"/>
+    <col min="14847" max="14847" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14848" max="14848" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="14849" max="14849" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14850" max="14850" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14851" max="14851" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14852" max="14852" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14853" max="14853" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14854" max="14854" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14855" max="14855" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="14856" max="14856" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14857" max="14857" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="14858" max="14858" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="14859" max="15102" width="17.28515625" style="7" collapsed="1"/>
+    <col min="15103" max="15103" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15104" max="15104" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="15105" max="15105" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15106" max="15106" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15107" max="15107" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15108" max="15108" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15109" max="15109" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15110" max="15110" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15111" max="15111" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15112" max="15112" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15113" max="15113" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15114" max="15114" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15115" max="15358" width="17.28515625" style="7" collapsed="1"/>
+    <col min="15359" max="15359" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15360" max="15360" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="15361" max="15361" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15362" max="15362" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15363" max="15363" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15364" max="15364" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15365" max="15365" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15366" max="15366" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15367" max="15367" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15368" max="15368" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15369" max="15369" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15370" max="15370" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15371" max="15614" width="17.28515625" style="7" collapsed="1"/>
+    <col min="15615" max="15615" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15616" max="15616" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="15617" max="15617" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15618" max="15618" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15619" max="15619" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15620" max="15620" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15621" max="15621" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15622" max="15622" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15623" max="15623" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15624" max="15624" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15625" max="15625" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15626" max="15626" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15627" max="15870" width="17.28515625" style="7" collapsed="1"/>
+    <col min="15871" max="15871" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15872" max="15872" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="15873" max="15873" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15874" max="15874" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15875" max="15875" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15876" max="15876" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15877" max="15877" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15878" max="15878" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15879" max="15879" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15880" max="15880" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15881" max="15881" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15882" max="15882" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="15883" max="16126" width="17.28515625" style="7" collapsed="1"/>
+    <col min="16127" max="16127" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16128" max="16128" width="19" style="7" customWidth="1" collapsed="1"/>
+    <col min="16129" max="16129" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16130" max="16130" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16131" max="16131" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16132" max="16132" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16133" max="16133" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16134" max="16134" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16135" max="16135" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="16136" max="16136" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="16137" max="16137" width="14.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="16138" max="16138" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="16139" max="16384" width="17.28515625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2499,60 +2581,60 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="61" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="63" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s" s="57">
+      <c r="I6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
@@ -2562,7 +2644,7 @@
       <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s" s="58">
+      <c r="I8" s="25" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="12"/>
@@ -2571,8 +2653,8 @@
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -2590,7 +2672,7 @@
       <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s" s="59">
+      <c r="I9" s="26" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2598,8 +2680,8 @@
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2615,7 +2697,7 @@
       <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s" s="60">
+      <c r="I10" s="27" t="s">
         <v>96</v>
       </c>
       <c r="J10" s="12"/>
@@ -2624,26 +2706,26 @@
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s" s="61">
+      <c r="I11" s="67" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2651,23 +2733,23 @@
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="44"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2683,18 +2765,18 @@
       <c r="H13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s" s="62">
+      <c r="I13" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2706,13 +2788,16 @@
       <c r="H14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I14" t="s" s="63">
+      <c r="I14" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2728,13 +2813,16 @@
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s" s="64">
+      <c r="I15" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2750,12 +2838,15 @@
       <c r="H16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s" s="65">
+      <c r="I16" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="57"/>
       <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
@@ -2774,12 +2865,15 @@
       <c r="H17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I17" t="s" s="67">
+      <c r="I17" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="58"/>
       <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2798,15 +2892,18 @@
       <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I18" t="s" s="68">
+      <c r="I18" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="53" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2824,13 +2921,16 @@
       <c r="H19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s" s="69">
+      <c r="I19" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2846,13 +2946,16 @@
       <c r="H20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I20" t="s" s="70">
+      <c r="I20" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2868,13 +2971,16 @@
       <c r="H21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I21" t="s" s="71">
+      <c r="I21" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="5" t="s">
         <v>76</v>
       </c>
@@ -2890,13 +2996,16 @@
       <c r="H22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I22" t="s" s="72">
+      <c r="I22" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="5" t="s">
         <v>79</v>
       </c>
@@ -2912,13 +3021,16 @@
       <c r="H23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I23" t="s" s="73">
+      <c r="I23" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="5" t="s">
         <v>80</v>
       </c>
@@ -2934,13 +3046,16 @@
       <c r="H24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I24" t="s" s="75">
+      <c r="I24" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2956,13 +3071,16 @@
       <c r="H25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I25" t="s" s="76">
+      <c r="I25" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="5" t="s">
         <v>82</v>
       </c>
@@ -2978,11 +3096,16 @@
       <c r="H26" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I26" t="s" s="77">
+      <c r="I26" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="5" t="s">
         <v>92</v>
       </c>
@@ -2998,16 +3121,265 @@
       <c r="H27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s" s="74">
+      <c r="I27" s="39" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C14:C16"/>
+  <mergeCells count="22">
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B19:B37"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
@@ -3022,8 +3394,12 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C28:C33"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="153">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -301,182 +301,186 @@
     <t>26,8</t>
   </si>
   <si>
-    <t>Sunil,anil43@mailinator.com,f00bar12,f00bar12,9910881849</t>
+    <t>TC_ID10</t>
+  </si>
+  <si>
+    <t>TC_ID11</t>
+  </si>
+  <si>
+    <t>TC_ID12</t>
+  </si>
+  <si>
+    <t>TC_ID13</t>
+  </si>
+  <si>
+    <t>TC_ID14</t>
+  </si>
+  <si>
+    <t>TC_ID15</t>
+  </si>
+  <si>
+    <t>TC_ID16</t>
+  </si>
+  <si>
+    <t>TC_ID17</t>
+  </si>
+  <si>
+    <t>TC_ID18</t>
+  </si>
+  <si>
+    <t>TC_ID19</t>
+  </si>
+  <si>
+    <t>TC_ID20</t>
+  </si>
+  <si>
+    <t>TC_ID21</t>
+  </si>
+  <si>
+    <t>TC_ID22</t>
+  </si>
+  <si>
+    <t>Magic Resume India</t>
+  </si>
+  <si>
+    <t>TC_ID23</t>
+  </si>
+  <si>
+    <t>To Verify  Clicking on Improve Resume</t>
+  </si>
+  <si>
+    <t>To Verify clicking on Magic Resume India Link</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button-Entry Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button-Mid Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume India Button-Senior Level</t>
+  </si>
+  <si>
+    <t>Click_body_Improve_resume_Link()</t>
+  </si>
+  <si>
+    <t>click_MR_India_Button()</t>
+  </si>
+  <si>
+    <t>Click_MR_India_EntryLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_India_MidLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_India_SeniorLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Magic Resume International</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button-Entry Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button-Mid Level</t>
+  </si>
+  <si>
+    <t>To Verify Clicking on Magic Resume Internation Button-Senior Level</t>
+  </si>
+  <si>
+    <t>TC_ID24</t>
+  </si>
+  <si>
+    <t>TC_ID25</t>
+  </si>
+  <si>
+    <t>TC_ID26</t>
+  </si>
+  <si>
+    <t>TC_ID27</t>
+  </si>
+  <si>
+    <t>TC_ID28</t>
+  </si>
+  <si>
+    <t>TC_ID29</t>
+  </si>
+  <si>
+    <t>TC_ID30</t>
+  </si>
+  <si>
+    <t>TC_ID31</t>
+  </si>
+  <si>
+    <t>TC_ID32</t>
+  </si>
+  <si>
+    <t>click_MR_Internation_Button()</t>
+  </si>
+  <si>
+    <t>Click_MR_Internation_EntryLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_Internation_MidLevel_Tab()</t>
+  </si>
+  <si>
+    <t>Click_MR_Internation_SeniorLevel_Tab()</t>
+  </si>
+  <si>
+    <t>27,8</t>
+  </si>
+  <si>
+    <t>28,8</t>
+  </si>
+  <si>
+    <t>29,8</t>
+  </si>
+  <si>
+    <t>30,8</t>
+  </si>
+  <si>
+    <t>31,8</t>
+  </si>
+  <si>
+    <t>32,8</t>
+  </si>
+  <si>
+    <t>33,8</t>
+  </si>
+  <si>
+    <t>34,8</t>
+  </si>
+  <si>
+    <t>35,8</t>
+  </si>
+  <si>
+    <t>36,8</t>
+  </si>
+  <si>
+    <t>click_improve_resume_lindia_ink()</t>
+  </si>
+  <si>
+    <t>Sunil,roopak7@mailinator.com,f00bar12,f00bar12,9910881849</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>TC_ID10</t>
-  </si>
-  <si>
-    <t>TC_ID11</t>
-  </si>
-  <si>
-    <t>TC_ID12</t>
-  </si>
-  <si>
-    <t>TC_ID13</t>
-  </si>
-  <si>
-    <t>TC_ID14</t>
-  </si>
-  <si>
-    <t>TC_ID15</t>
-  </si>
-  <si>
-    <t>TC_ID16</t>
-  </si>
-  <si>
-    <t>TC_ID17</t>
-  </si>
-  <si>
-    <t>TC_ID18</t>
-  </si>
-  <si>
-    <t>TC_ID19</t>
-  </si>
-  <si>
-    <t>TC_ID20</t>
-  </si>
-  <si>
-    <t>TC_ID21</t>
-  </si>
-  <si>
-    <t>TC_ID22</t>
-  </si>
-  <si>
-    <t>Magic Resume India</t>
-  </si>
-  <si>
-    <t>TC_ID23</t>
-  </si>
-  <si>
-    <t>To Verify  Clicking on Improve Resume</t>
-  </si>
-  <si>
-    <t>To Verify clicking on Magic Resume India Link</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume India Button</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume India Button-Entry Level</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume India Button-Mid Level</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume India Button-Senior Level</t>
-  </si>
-  <si>
-    <t>Click_body_Improve_resume_Link()</t>
-  </si>
-  <si>
-    <t>click_MR_India_Button()</t>
-  </si>
-  <si>
-    <t>Click_MR_India_EntryLevel_Tab()</t>
-  </si>
-  <si>
-    <t>Click_MR_India_MidLevel_Tab()</t>
-  </si>
-  <si>
-    <t>Click_MR_India_SeniorLevel_Tab()</t>
-  </si>
-  <si>
-    <t>Magic Resume International</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume Internation Button</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume Internation Button-Entry Level</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume Internation Button-Mid Level</t>
-  </si>
-  <si>
-    <t>To Verify Clicking on Magic Resume Internation Button-Senior Level</t>
-  </si>
-  <si>
-    <t>TC_ID24</t>
-  </si>
-  <si>
-    <t>TC_ID25</t>
-  </si>
-  <si>
-    <t>TC_ID26</t>
-  </si>
-  <si>
-    <t>TC_ID27</t>
-  </si>
-  <si>
-    <t>TC_ID28</t>
-  </si>
-  <si>
-    <t>TC_ID29</t>
-  </si>
-  <si>
-    <t>TC_ID30</t>
-  </si>
-  <si>
-    <t>TC_ID31</t>
-  </si>
-  <si>
-    <t>TC_ID32</t>
-  </si>
-  <si>
-    <t>click_MR_Internation_Button()</t>
-  </si>
-  <si>
-    <t>Click_MR_Internation_EntryLevel_Tab()</t>
-  </si>
-  <si>
-    <t>Click_MR_Internation_MidLevel_Tab()</t>
-  </si>
-  <si>
-    <t>Click_MR_Internation_SeniorLevel_Tab()</t>
-  </si>
-  <si>
-    <t>27,8</t>
-  </si>
-  <si>
-    <t>28,8</t>
-  </si>
-  <si>
-    <t>29,8</t>
-  </si>
-  <si>
-    <t>30,8</t>
-  </si>
-  <si>
-    <t>31,8</t>
-  </si>
-  <si>
-    <t>32,8</t>
-  </si>
-  <si>
-    <t>33,8</t>
-  </si>
-  <si>
-    <t>34,8</t>
-  </si>
-  <si>
-    <t>35,8</t>
-  </si>
-  <si>
-    <t>36,8</t>
-  </si>
-  <si>
-    <t>click_improve_resume_lindia_ink()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="265" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,13 +522,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -672,8 +669,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -744,8 +747,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -825,6 +828,1260 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1131,54 +2388,54 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1234,9 +2491,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1252,7 +2516,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1262,24 +2525,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,16 +2537,240 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1651,881 +3121,881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="71.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="254" width="17.28515625" style="7" collapsed="1"/>
-    <col min="255" max="255" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="256" max="256" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="257" max="257" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="258" max="258" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="259" max="259" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="260" max="260" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="261" max="261" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="262" max="262" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="263" max="263" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="264" max="264" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="265" max="265" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="266" max="266" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="267" max="510" width="17.28515625" style="7" collapsed="1"/>
-    <col min="511" max="511" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="512" max="512" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="513" max="513" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="514" max="514" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="515" max="515" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="516" max="516" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="517" max="517" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="518" max="518" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="519" max="519" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="520" max="520" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="521" max="521" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="522" max="522" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="523" max="766" width="17.28515625" style="7" collapsed="1"/>
-    <col min="767" max="767" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="768" max="768" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="769" max="769" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="770" max="770" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="771" max="771" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="772" max="772" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="773" max="773" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="774" max="774" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="775" max="775" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="776" max="776" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="777" max="777" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="778" max="778" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="779" max="1022" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1023" max="1023" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1024" max="1024" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1025" max="1025" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1026" max="1026" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1027" max="1027" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1028" max="1028" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1029" max="1029" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1030" max="1030" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1031" max="1031" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1032" max="1032" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1033" max="1033" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1034" max="1034" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1035" max="1278" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1279" max="1279" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1280" max="1280" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1281" max="1281" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1282" max="1282" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1283" max="1283" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1284" max="1284" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1285" max="1285" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1286" max="1286" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1287" max="1287" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1288" max="1288" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1289" max="1289" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1290" max="1290" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1291" max="1534" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1535" max="1535" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1536" max="1536" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1537" max="1537" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1538" max="1538" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1539" max="1539" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1540" max="1540" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1541" max="1541" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1542" max="1542" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1543" max="1543" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1544" max="1544" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1545" max="1545" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1546" max="1546" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1547" max="1790" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1791" max="1791" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1792" max="1792" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1793" max="1793" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1794" max="1794" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1795" max="1795" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1796" max="1796" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1797" max="1797" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1798" max="1798" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1799" max="1799" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1800" max="1800" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1801" max="1801" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1802" max="1802" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1803" max="2046" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2047" max="2047" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2048" max="2048" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2049" max="2049" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2050" max="2050" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2051" max="2051" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2052" max="2052" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2053" max="2053" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2054" max="2054" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2055" max="2055" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2056" max="2056" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2057" max="2057" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2058" max="2058" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2059" max="2302" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2303" max="2303" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2304" max="2304" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2305" max="2305" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2306" max="2306" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2307" max="2307" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2308" max="2308" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2309" max="2309" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2310" max="2310" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2311" max="2311" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2312" max="2312" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2313" max="2313" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2314" max="2314" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2315" max="2558" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2559" max="2559" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2560" max="2560" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2561" max="2561" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2562" max="2562" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2563" max="2563" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2564" max="2564" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2565" max="2565" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2566" max="2566" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2567" max="2567" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2568" max="2568" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2569" max="2569" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2570" max="2570" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2571" max="2814" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2815" max="2815" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2816" max="2816" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2817" max="2817" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2818" max="2818" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2819" max="2819" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2820" max="2820" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2821" max="2821" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2822" max="2822" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2823" max="2823" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2824" max="2824" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2825" max="2825" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2826" max="2826" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2827" max="3070" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3071" max="3071" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3072" max="3072" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3073" max="3073" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3074" max="3074" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3075" max="3075" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3076" max="3076" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3077" max="3077" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3078" max="3078" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3079" max="3079" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3080" max="3080" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3081" max="3081" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3082" max="3082" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3083" max="3326" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3327" max="3327" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3328" max="3328" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3329" max="3329" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3330" max="3330" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3331" max="3331" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3332" max="3332" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3333" max="3333" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3334" max="3334" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3335" max="3335" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3336" max="3336" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3337" max="3337" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3338" max="3338" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3339" max="3582" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3583" max="3583" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3584" max="3584" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3585" max="3585" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3586" max="3586" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3587" max="3587" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3588" max="3588" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3589" max="3589" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3590" max="3590" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3591" max="3591" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3592" max="3592" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3593" max="3593" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3594" max="3594" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3595" max="3838" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3839" max="3839" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3840" max="3840" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3841" max="3841" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3842" max="3842" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3843" max="3843" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3844" max="3844" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3845" max="3845" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3846" max="3846" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3847" max="3847" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3848" max="3848" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3849" max="3849" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3850" max="3850" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3851" max="4094" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4095" max="4095" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4096" max="4096" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4097" max="4097" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4098" max="4098" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4099" max="4099" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4100" max="4100" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4101" max="4101" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4102" max="4102" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4103" max="4103" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4104" max="4104" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4105" max="4105" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4106" max="4106" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4107" max="4350" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4351" max="4351" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4352" max="4352" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4353" max="4353" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4354" max="4354" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4355" max="4355" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4356" max="4356" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4357" max="4357" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4358" max="4358" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4359" max="4359" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4360" max="4360" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4361" max="4361" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4362" max="4362" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4363" max="4606" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4607" max="4607" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4608" max="4608" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4609" max="4609" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4610" max="4610" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4611" max="4611" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4612" max="4612" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4613" max="4613" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4614" max="4614" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4615" max="4615" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4616" max="4616" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4617" max="4617" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4618" max="4618" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4619" max="4862" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4863" max="4863" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4864" max="4864" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4865" max="4865" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4866" max="4866" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4867" max="4867" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4868" max="4868" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4869" max="4869" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4870" max="4870" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4871" max="4871" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4872" max="4872" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4873" max="4873" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4874" max="4874" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4875" max="5118" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5119" max="5119" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5120" max="5120" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5121" max="5121" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5122" max="5122" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5123" max="5123" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5124" max="5124" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5125" max="5125" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5126" max="5126" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5127" max="5127" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5128" max="5128" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5129" max="5129" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5130" max="5130" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5131" max="5374" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5375" max="5375" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5376" max="5376" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5377" max="5377" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5378" max="5378" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5379" max="5379" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5380" max="5380" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5381" max="5381" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5382" max="5382" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5383" max="5383" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5384" max="5384" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5385" max="5385" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5386" max="5386" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5387" max="5630" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5631" max="5631" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5632" max="5632" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5633" max="5633" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5634" max="5634" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5635" max="5635" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5636" max="5636" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5637" max="5637" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5638" max="5638" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5639" max="5639" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5640" max="5640" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5641" max="5641" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5642" max="5642" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5643" max="5886" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5887" max="5887" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5888" max="5888" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5889" max="5889" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5890" max="5890" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5891" max="5891" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5892" max="5892" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5893" max="5893" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5894" max="5894" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5895" max="5895" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5896" max="5896" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5897" max="5897" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5898" max="5898" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5899" max="6142" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6143" max="6143" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6144" max="6144" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6145" max="6145" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6146" max="6146" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6147" max="6147" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6148" max="6148" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6149" max="6149" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6150" max="6150" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6151" max="6151" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6152" max="6152" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6153" max="6153" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6154" max="6154" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6155" max="6398" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6399" max="6399" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6400" max="6400" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6401" max="6401" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6402" max="6402" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6403" max="6403" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6404" max="6404" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6405" max="6405" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6406" max="6406" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6407" max="6407" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6408" max="6408" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6409" max="6409" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6410" max="6410" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6411" max="6654" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6655" max="6655" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6656" max="6656" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6657" max="6657" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6658" max="6658" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6659" max="6659" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6660" max="6660" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6661" max="6661" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6662" max="6662" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6663" max="6663" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6664" max="6664" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6665" max="6665" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6666" max="6666" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6667" max="6910" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6911" max="6911" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6912" max="6912" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6913" max="6913" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6914" max="6914" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6915" max="6915" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6916" max="6916" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6917" max="6917" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6918" max="6918" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6919" max="6919" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6920" max="6920" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6921" max="6921" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6922" max="6922" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6923" max="7166" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7167" max="7167" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7168" max="7168" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7169" max="7169" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7170" max="7170" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7171" max="7171" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7172" max="7172" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7173" max="7173" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7174" max="7174" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7175" max="7175" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7176" max="7176" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7177" max="7177" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7178" max="7178" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7179" max="7422" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7423" max="7423" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7424" max="7424" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7425" max="7425" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7426" max="7426" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7427" max="7427" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7428" max="7428" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7429" max="7429" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7430" max="7430" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7431" max="7431" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7432" max="7432" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7433" max="7433" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7434" max="7434" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7435" max="7678" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7679" max="7679" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7680" max="7680" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7681" max="7681" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7682" max="7682" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7683" max="7683" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7684" max="7684" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7685" max="7685" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7686" max="7686" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7687" max="7687" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7688" max="7688" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7689" max="7689" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7690" max="7690" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7691" max="7934" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7935" max="7935" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7936" max="7936" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7937" max="7937" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7938" max="7938" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7939" max="7939" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7940" max="7940" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7941" max="7941" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7942" max="7942" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7943" max="7943" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7944" max="7944" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7945" max="7945" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7946" max="7946" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7947" max="8190" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8191" max="8191" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8192" max="8192" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8193" max="8193" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8194" max="8194" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8195" max="8195" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8196" max="8196" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8197" max="8197" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8198" max="8198" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8199" max="8199" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8200" max="8200" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8201" max="8201" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8202" max="8202" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8203" max="8446" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8447" max="8447" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8448" max="8448" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8449" max="8449" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8450" max="8450" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8451" max="8451" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8452" max="8452" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8453" max="8453" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8454" max="8454" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8455" max="8455" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8456" max="8456" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8457" max="8457" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8458" max="8458" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8459" max="8702" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8703" max="8703" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8704" max="8704" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8705" max="8705" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8706" max="8706" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8707" max="8707" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8708" max="8708" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8709" max="8709" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8710" max="8710" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8711" max="8711" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8712" max="8712" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8713" max="8713" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8714" max="8714" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8715" max="8958" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8959" max="8959" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8960" max="8960" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8961" max="8961" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8962" max="8962" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8963" max="8963" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8964" max="8964" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8965" max="8965" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8966" max="8966" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8967" max="8967" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8968" max="8968" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8969" max="8969" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8970" max="8970" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8971" max="9214" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9215" max="9215" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9216" max="9216" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9217" max="9217" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9218" max="9218" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9219" max="9219" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9220" max="9220" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9221" max="9221" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9222" max="9222" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9223" max="9223" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9224" max="9224" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9225" max="9225" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9226" max="9226" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9227" max="9470" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9471" max="9471" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9472" max="9472" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9473" max="9473" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9474" max="9474" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9475" max="9475" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9476" max="9476" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9477" max="9477" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9478" max="9478" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9479" max="9479" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9480" max="9480" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9481" max="9481" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9482" max="9482" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9483" max="9726" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9727" max="9727" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9728" max="9728" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9729" max="9729" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9730" max="9730" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9731" max="9731" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9732" max="9732" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9733" max="9733" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9734" max="9734" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9735" max="9735" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9736" max="9736" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9737" max="9737" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9738" max="9738" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9739" max="9982" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9983" max="9983" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9984" max="9984" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9985" max="9985" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9986" max="9986" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9987" max="9987" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9988" max="9988" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9989" max="9989" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9990" max="9990" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9991" max="9991" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9992" max="9992" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9993" max="9993" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9994" max="9994" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9995" max="10238" width="17.28515625" style="7" collapsed="1"/>
-    <col min="10239" max="10239" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10240" max="10240" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="10241" max="10241" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10242" max="10242" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10243" max="10243" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10244" max="10244" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10245" max="10245" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10246" max="10246" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10247" max="10247" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="10248" max="10248" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10249" max="10249" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="10250" max="10250" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10251" max="10494" width="17.28515625" style="7" collapsed="1"/>
-    <col min="10495" max="10495" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10496" max="10496" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="10497" max="10497" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10498" max="10498" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10499" max="10499" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10500" max="10500" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10501" max="10501" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10502" max="10502" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10503" max="10503" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="10504" max="10504" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10505" max="10505" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="10506" max="10506" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10507" max="10750" width="17.28515625" style="7" collapsed="1"/>
-    <col min="10751" max="10751" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10752" max="10752" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="10753" max="10753" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10754" max="10754" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10755" max="10755" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10756" max="10756" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10757" max="10757" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10758" max="10758" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10759" max="10759" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="10760" max="10760" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10761" max="10761" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="10762" max="10762" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10763" max="11006" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11007" max="11007" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11008" max="11008" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11009" max="11009" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11010" max="11010" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11011" max="11011" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11012" max="11012" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11013" max="11013" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11014" max="11014" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11015" max="11015" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11016" max="11016" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11017" max="11017" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11018" max="11018" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11019" max="11262" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11263" max="11263" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11264" max="11264" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11265" max="11265" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11266" max="11266" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11267" max="11267" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11268" max="11268" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11269" max="11269" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11270" max="11270" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11271" max="11271" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11272" max="11272" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11273" max="11273" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11274" max="11274" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11275" max="11518" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11519" max="11519" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11520" max="11520" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11521" max="11521" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11522" max="11522" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11523" max="11523" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11524" max="11524" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11525" max="11525" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11526" max="11526" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11527" max="11527" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11528" max="11528" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11529" max="11529" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11530" max="11530" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11531" max="11774" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11775" max="11775" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11776" max="11776" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11777" max="11777" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11778" max="11778" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11779" max="11779" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11780" max="11780" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11781" max="11781" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11782" max="11782" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11783" max="11783" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11784" max="11784" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11785" max="11785" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11786" max="11786" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11787" max="12030" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12031" max="12031" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12032" max="12032" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12033" max="12033" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12034" max="12034" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12035" max="12035" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12036" max="12036" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12037" max="12037" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12038" max="12038" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12039" max="12039" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12040" max="12040" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12041" max="12041" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12042" max="12042" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12043" max="12286" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12287" max="12287" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12288" max="12288" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12289" max="12289" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12290" max="12290" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12291" max="12291" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12292" max="12292" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12293" max="12293" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12294" max="12294" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12295" max="12295" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12296" max="12296" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12297" max="12297" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12298" max="12298" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12299" max="12542" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12543" max="12543" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12544" max="12544" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12545" max="12545" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12546" max="12546" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12547" max="12547" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12548" max="12548" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12549" max="12549" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12550" max="12550" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12551" max="12551" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12552" max="12552" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12553" max="12553" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12554" max="12554" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12555" max="12798" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12799" max="12799" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12800" max="12800" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12801" max="12801" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12802" max="12802" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12803" max="12803" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12804" max="12804" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12805" max="12805" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12806" max="12806" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12807" max="12807" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12808" max="12808" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12809" max="12809" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12810" max="12810" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12811" max="13054" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13055" max="13055" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13056" max="13056" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13057" max="13057" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13058" max="13058" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13059" max="13059" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13060" max="13060" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13061" max="13061" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13062" max="13062" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13063" max="13063" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13064" max="13064" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13065" max="13065" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13066" max="13066" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13067" max="13310" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13311" max="13311" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13312" max="13312" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13313" max="13313" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13314" max="13314" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13315" max="13315" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13316" max="13316" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13317" max="13317" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13318" max="13318" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13319" max="13319" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13320" max="13320" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13321" max="13321" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13322" max="13322" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13323" max="13566" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13567" max="13567" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13568" max="13568" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13569" max="13569" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13570" max="13570" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13571" max="13571" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13572" max="13572" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13573" max="13573" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13574" max="13574" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13575" max="13575" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13576" max="13576" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13577" max="13577" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13578" max="13578" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13579" max="13822" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13823" max="13823" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13824" max="13824" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13825" max="13825" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13826" max="13826" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13827" max="13827" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13828" max="13828" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13829" max="13829" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13830" max="13830" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13831" max="13831" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13832" max="13832" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13833" max="13833" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13834" max="13834" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13835" max="14078" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14079" max="14079" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14080" max="14080" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14081" max="14081" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14082" max="14082" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14083" max="14083" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14084" max="14084" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14085" max="14085" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14086" max="14086" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14087" max="14087" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14088" max="14088" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14089" max="14089" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14090" max="14090" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14091" max="14334" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14335" max="14335" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14336" max="14336" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14337" max="14337" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14338" max="14338" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14339" max="14339" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14340" max="14340" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14341" max="14341" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14342" max="14342" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14343" max="14343" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14344" max="14344" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14345" max="14345" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14346" max="14346" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14347" max="14590" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14591" max="14591" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14592" max="14592" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14593" max="14593" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14594" max="14594" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14595" max="14595" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14596" max="14596" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14597" max="14597" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14598" max="14598" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14599" max="14599" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14600" max="14600" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14601" max="14601" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14602" max="14602" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14603" max="14846" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14847" max="14847" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14848" max="14848" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14849" max="14849" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14850" max="14850" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14851" max="14851" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14852" max="14852" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14853" max="14853" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14854" max="14854" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14855" max="14855" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14856" max="14856" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14857" max="14857" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14858" max="14858" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14859" max="15102" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15103" max="15103" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15104" max="15104" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15105" max="15105" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15106" max="15106" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15107" max="15107" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15108" max="15108" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15109" max="15109" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15110" max="15110" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15111" max="15111" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15112" max="15112" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15113" max="15113" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15114" max="15114" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15115" max="15358" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15359" max="15359" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15360" max="15360" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15361" max="15361" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15362" max="15362" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15363" max="15363" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15364" max="15364" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15365" max="15365" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15366" max="15366" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15367" max="15367" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15368" max="15368" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15369" max="15369" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15370" max="15370" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15371" max="15614" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15615" max="15615" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15616" max="15616" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15617" max="15617" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15618" max="15618" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15619" max="15619" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15620" max="15620" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15621" max="15621" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15622" max="15622" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15623" max="15623" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15624" max="15624" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15625" max="15625" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15626" max="15626" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15627" max="15870" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15871" max="15871" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15872" max="15872" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15873" max="15873" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15874" max="15874" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15875" max="15875" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15876" max="15876" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15877" max="15877" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15878" max="15878" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15879" max="15879" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15880" max="15880" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15881" max="15881" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15882" max="15882" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15883" max="16126" width="17.28515625" style="7" collapsed="1"/>
-    <col min="16127" max="16127" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16128" max="16128" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="16129" max="16129" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16130" max="16130" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16131" max="16131" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16132" max="16132" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16133" max="16133" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16134" max="16134" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16135" max="16135" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="16136" max="16136" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="16137" max="16137" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="16138" max="16138" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="16139" max="16384" width="17.28515625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="71.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="36.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="26.85546875" collapsed="true"/>
+    <col min="11" max="254" style="7" width="17.28515625" collapsed="true"/>
+    <col min="255" max="255" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="256" max="256" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="257" max="257" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="258" max="258" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="259" max="259" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="260" max="260" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="261" max="261" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="262" max="262" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="263" max="263" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="264" max="264" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="265" max="265" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="266" max="266" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="267" max="510" style="7" width="17.28515625" collapsed="true"/>
+    <col min="511" max="511" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="512" max="512" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="513" max="513" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="514" max="514" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="515" max="515" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="516" max="516" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="517" max="517" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="518" max="518" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="519" max="519" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="520" max="520" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="521" max="521" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="522" max="522" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="523" max="766" style="7" width="17.28515625" collapsed="true"/>
+    <col min="767" max="767" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="768" max="768" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="769" max="769" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="770" max="770" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="771" max="771" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="772" max="772" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="773" max="773" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="774" max="774" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="775" max="775" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="776" max="776" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="777" max="777" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="778" max="778" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="779" max="1022" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1023" max="1023" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1024" max="1024" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1025" max="1025" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1026" max="1026" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1027" max="1027" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1028" max="1028" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1029" max="1029" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1030" max="1030" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1031" max="1031" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1032" max="1032" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1033" max="1033" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1034" max="1034" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1035" max="1278" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1279" max="1279" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1280" max="1280" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1281" max="1281" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1282" max="1282" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1283" max="1283" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1284" max="1284" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1285" max="1285" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1286" max="1286" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1287" max="1287" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1288" max="1288" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1289" max="1289" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1290" max="1290" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1291" max="1534" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1535" max="1535" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1536" max="1536" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1537" max="1537" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1538" max="1538" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1539" max="1539" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1540" max="1540" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1541" max="1541" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1542" max="1542" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1543" max="1543" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1544" max="1544" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1545" max="1545" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1546" max="1546" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1547" max="1790" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1791" max="1791" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1792" max="1792" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1793" max="1793" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1794" max="1794" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1795" max="1795" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1796" max="1796" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1797" max="1797" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1798" max="1798" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1799" max="1799" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1800" max="1800" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1801" max="1801" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1802" max="1802" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1803" max="2046" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2047" max="2047" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2048" max="2048" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2049" max="2049" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2050" max="2050" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2051" max="2051" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2052" max="2052" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2053" max="2053" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2054" max="2054" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2055" max="2055" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2056" max="2056" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2057" max="2057" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2058" max="2058" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2059" max="2302" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2303" max="2303" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2304" max="2304" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2305" max="2305" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2306" max="2306" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2307" max="2307" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2308" max="2308" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2309" max="2309" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2310" max="2310" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2311" max="2311" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2312" max="2312" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2313" max="2313" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2314" max="2314" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2315" max="2558" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2559" max="2559" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2560" max="2560" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2561" max="2561" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2562" max="2562" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2563" max="2563" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2564" max="2564" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2565" max="2565" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2566" max="2566" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2567" max="2567" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2568" max="2568" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2569" max="2569" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2570" max="2570" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2571" max="2814" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2815" max="2815" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2816" max="2816" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2817" max="2817" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2818" max="2818" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2819" max="2819" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2820" max="2820" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2821" max="2821" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2822" max="2822" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2823" max="2823" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2824" max="2824" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2825" max="2825" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2826" max="2826" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2827" max="3070" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3071" max="3071" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3072" max="3072" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3073" max="3073" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3074" max="3074" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3075" max="3075" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3076" max="3076" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3077" max="3077" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3078" max="3078" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3079" max="3079" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3080" max="3080" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3081" max="3081" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3082" max="3082" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3083" max="3326" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3327" max="3327" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3328" max="3328" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3329" max="3329" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3330" max="3330" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3331" max="3331" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3332" max="3332" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3333" max="3333" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3334" max="3334" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3335" max="3335" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3336" max="3336" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3337" max="3337" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3338" max="3338" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3339" max="3582" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3583" max="3583" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3584" max="3584" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3585" max="3585" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3586" max="3586" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3587" max="3587" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3588" max="3588" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3589" max="3589" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3590" max="3590" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3591" max="3591" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3592" max="3592" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3593" max="3593" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3594" max="3594" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3595" max="3838" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3839" max="3839" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3840" max="3840" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3841" max="3841" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3842" max="3842" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3843" max="3843" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3844" max="3844" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3845" max="3845" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3846" max="3846" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3847" max="3847" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3848" max="3848" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3849" max="3849" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3850" max="3850" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3851" max="4094" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4095" max="4095" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4096" max="4096" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4097" max="4097" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4098" max="4098" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4099" max="4099" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4100" max="4100" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4101" max="4101" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4102" max="4102" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4103" max="4103" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4104" max="4104" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4105" max="4105" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4106" max="4106" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4107" max="4350" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4351" max="4351" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4352" max="4352" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4353" max="4353" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4354" max="4354" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4355" max="4355" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4356" max="4356" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4357" max="4357" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4358" max="4358" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4359" max="4359" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4360" max="4360" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4361" max="4361" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4362" max="4362" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4363" max="4606" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4607" max="4607" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4608" max="4608" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4609" max="4609" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4610" max="4610" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4611" max="4611" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4612" max="4612" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4613" max="4613" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4614" max="4614" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4615" max="4615" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4616" max="4616" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4617" max="4617" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4618" max="4618" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4619" max="4862" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4863" max="4863" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4864" max="4864" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4865" max="4865" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4866" max="4866" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4867" max="4867" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4868" max="4868" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4869" max="4869" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4870" max="4870" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4871" max="4871" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4872" max="4872" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4873" max="4873" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4874" max="4874" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4875" max="5118" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5119" max="5119" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5120" max="5120" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5121" max="5121" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5122" max="5122" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5123" max="5123" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5124" max="5124" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5125" max="5125" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5126" max="5126" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5127" max="5127" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5128" max="5128" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5129" max="5129" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5130" max="5130" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5131" max="5374" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5375" max="5375" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5376" max="5376" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5377" max="5377" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5378" max="5378" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5379" max="5379" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5380" max="5380" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5381" max="5381" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5382" max="5382" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5383" max="5383" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5384" max="5384" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5385" max="5385" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5386" max="5386" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5387" max="5630" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5631" max="5631" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5632" max="5632" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5633" max="5633" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5634" max="5634" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5635" max="5635" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5636" max="5636" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5637" max="5637" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5638" max="5638" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5639" max="5639" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5640" max="5640" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5641" max="5641" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5642" max="5642" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5643" max="5886" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5887" max="5887" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5888" max="5888" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5889" max="5889" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5890" max="5890" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5891" max="5891" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5892" max="5892" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5893" max="5893" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5894" max="5894" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5895" max="5895" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5896" max="5896" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5897" max="5897" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5898" max="5898" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5899" max="6142" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6143" max="6143" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6144" max="6144" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6145" max="6145" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6146" max="6146" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6147" max="6147" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6148" max="6148" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6149" max="6149" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6150" max="6150" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6151" max="6151" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6152" max="6152" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6153" max="6153" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6154" max="6154" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6155" max="6398" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6399" max="6399" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6400" max="6400" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6401" max="6401" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6402" max="6402" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6403" max="6403" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6404" max="6404" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6405" max="6405" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6406" max="6406" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6407" max="6407" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6408" max="6408" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6409" max="6409" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6410" max="6410" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6411" max="6654" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6655" max="6655" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6656" max="6656" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6657" max="6657" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6658" max="6658" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6659" max="6659" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6660" max="6660" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6661" max="6661" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6662" max="6662" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6663" max="6663" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6664" max="6664" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6665" max="6665" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6666" max="6666" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6667" max="6910" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6911" max="6911" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6912" max="6912" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6913" max="6913" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6914" max="6914" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6915" max="6915" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6916" max="6916" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6917" max="6917" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6918" max="6918" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6919" max="6919" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6920" max="6920" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6921" max="6921" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6922" max="6922" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6923" max="7166" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7167" max="7167" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7168" max="7168" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7169" max="7169" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7170" max="7170" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7171" max="7171" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7172" max="7172" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7173" max="7173" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7174" max="7174" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7175" max="7175" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7176" max="7176" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7177" max="7177" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7178" max="7178" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7179" max="7422" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7423" max="7423" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7424" max="7424" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7425" max="7425" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7426" max="7426" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7427" max="7427" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7428" max="7428" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7429" max="7429" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7430" max="7430" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7431" max="7431" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7432" max="7432" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7433" max="7433" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7434" max="7434" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7435" max="7678" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7679" max="7679" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7680" max="7680" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7681" max="7681" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7682" max="7682" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7683" max="7683" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7684" max="7684" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7685" max="7685" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7686" max="7686" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7687" max="7687" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7688" max="7688" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7689" max="7689" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7690" max="7690" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7691" max="7934" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7935" max="7935" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7936" max="7936" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7937" max="7937" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7938" max="7938" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7939" max="7939" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7940" max="7940" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7941" max="7941" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7942" max="7942" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7943" max="7943" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7944" max="7944" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7945" max="7945" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7946" max="7946" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7947" max="8190" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8191" max="8191" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8192" max="8192" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8193" max="8193" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8194" max="8194" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8195" max="8195" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8196" max="8196" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8197" max="8197" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8198" max="8198" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8199" max="8199" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8200" max="8200" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8201" max="8201" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8202" max="8202" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8203" max="8446" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8447" max="8447" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8448" max="8448" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8449" max="8449" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8450" max="8450" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8451" max="8451" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8452" max="8452" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8453" max="8453" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8454" max="8454" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8455" max="8455" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8456" max="8456" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8457" max="8457" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8458" max="8458" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8459" max="8702" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8703" max="8703" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8704" max="8704" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8705" max="8705" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8706" max="8706" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8707" max="8707" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8708" max="8708" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8709" max="8709" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8710" max="8710" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8711" max="8711" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8712" max="8712" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8713" max="8713" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8714" max="8714" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8715" max="8958" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8959" max="8959" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8960" max="8960" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8961" max="8961" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8962" max="8962" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8963" max="8963" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8964" max="8964" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8965" max="8965" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8966" max="8966" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8967" max="8967" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8968" max="8968" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8969" max="8969" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8970" max="8970" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8971" max="9214" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9215" max="9215" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9216" max="9216" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9217" max="9217" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9218" max="9218" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9219" max="9219" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9220" max="9220" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9221" max="9221" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9222" max="9222" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9223" max="9223" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9224" max="9224" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9225" max="9225" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9226" max="9226" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9227" max="9470" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9471" max="9471" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9472" max="9472" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9473" max="9473" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9474" max="9474" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9475" max="9475" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9476" max="9476" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9477" max="9477" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9478" max="9478" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9479" max="9479" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9480" max="9480" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9481" max="9481" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9482" max="9482" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9483" max="9726" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9727" max="9727" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9728" max="9728" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9729" max="9729" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9730" max="9730" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9731" max="9731" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9732" max="9732" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9733" max="9733" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9734" max="9734" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9735" max="9735" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9736" max="9736" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9737" max="9737" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9738" max="9738" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9739" max="9982" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9983" max="9983" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9984" max="9984" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9985" max="9985" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9986" max="9986" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9987" max="9987" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9988" max="9988" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9989" max="9989" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9990" max="9990" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9991" max="9991" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9992" max="9992" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9993" max="9993" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9994" max="9994" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9995" max="10238" style="7" width="17.28515625" collapsed="true"/>
+    <col min="10239" max="10239" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="10240" max="10240" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="10241" max="10241" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="10242" max="10242" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="10243" max="10243" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="10244" max="10244" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="10245" max="10245" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="10246" max="10246" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="10247" max="10247" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="10248" max="10248" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10249" max="10249" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="10250" max="10250" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10251" max="10494" style="7" width="17.28515625" collapsed="true"/>
+    <col min="10495" max="10495" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="10496" max="10496" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="10497" max="10497" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="10498" max="10498" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="10499" max="10499" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="10500" max="10500" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="10501" max="10501" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="10502" max="10502" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="10503" max="10503" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="10504" max="10504" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10505" max="10505" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="10506" max="10506" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10507" max="10750" style="7" width="17.28515625" collapsed="true"/>
+    <col min="10751" max="10751" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="10752" max="10752" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="10753" max="10753" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="10754" max="10754" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="10755" max="10755" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="10756" max="10756" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="10757" max="10757" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="10758" max="10758" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="10759" max="10759" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="10760" max="10760" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10761" max="10761" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="10762" max="10762" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10763" max="11006" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11007" max="11007" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11008" max="11008" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11009" max="11009" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11010" max="11010" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11011" max="11011" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11012" max="11012" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11013" max="11013" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11014" max="11014" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11015" max="11015" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11016" max="11016" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11017" max="11017" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11018" max="11018" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11019" max="11262" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11263" max="11263" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11264" max="11264" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11265" max="11265" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11266" max="11266" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11267" max="11267" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11268" max="11268" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11269" max="11269" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11270" max="11270" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11271" max="11271" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11272" max="11272" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11273" max="11273" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11274" max="11274" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11275" max="11518" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11519" max="11519" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11520" max="11520" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11521" max="11521" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11522" max="11522" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11523" max="11523" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11524" max="11524" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11525" max="11525" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11526" max="11526" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11527" max="11527" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11528" max="11528" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11529" max="11529" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11530" max="11530" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11531" max="11774" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11775" max="11775" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11776" max="11776" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11777" max="11777" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11778" max="11778" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11779" max="11779" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11780" max="11780" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11781" max="11781" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11782" max="11782" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11783" max="11783" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11784" max="11784" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11785" max="11785" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11786" max="11786" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11787" max="12030" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12031" max="12031" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12032" max="12032" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12033" max="12033" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12034" max="12034" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12035" max="12035" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12036" max="12036" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12037" max="12037" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12038" max="12038" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12039" max="12039" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12040" max="12040" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12041" max="12041" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12042" max="12042" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12043" max="12286" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12287" max="12287" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12288" max="12288" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12289" max="12289" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12290" max="12290" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12291" max="12291" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12292" max="12292" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12293" max="12293" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12294" max="12294" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12295" max="12295" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12296" max="12296" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12297" max="12297" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12298" max="12298" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12299" max="12542" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12543" max="12543" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12544" max="12544" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12545" max="12545" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12546" max="12546" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12547" max="12547" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12548" max="12548" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12549" max="12549" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12550" max="12550" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12551" max="12551" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12552" max="12552" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12553" max="12553" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12554" max="12554" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12555" max="12798" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12799" max="12799" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12800" max="12800" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12801" max="12801" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12802" max="12802" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12803" max="12803" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12804" max="12804" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12805" max="12805" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12806" max="12806" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12807" max="12807" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12808" max="12808" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12809" max="12809" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12810" max="12810" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12811" max="13054" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13055" max="13055" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13056" max="13056" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13057" max="13057" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13058" max="13058" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13059" max="13059" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13060" max="13060" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13061" max="13061" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13062" max="13062" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13063" max="13063" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13064" max="13064" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13065" max="13065" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13066" max="13066" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13067" max="13310" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13311" max="13311" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13312" max="13312" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13313" max="13313" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13314" max="13314" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13315" max="13315" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13316" max="13316" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13317" max="13317" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13318" max="13318" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13319" max="13319" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13320" max="13320" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13321" max="13321" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13322" max="13322" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13323" max="13566" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13567" max="13567" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13568" max="13568" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13569" max="13569" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13570" max="13570" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13571" max="13571" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13572" max="13572" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13573" max="13573" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13574" max="13574" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13575" max="13575" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13576" max="13576" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13577" max="13577" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13578" max="13578" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13579" max="13822" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13823" max="13823" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13824" max="13824" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13825" max="13825" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13826" max="13826" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13827" max="13827" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13828" max="13828" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13829" max="13829" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13830" max="13830" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13831" max="13831" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13832" max="13832" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13833" max="13833" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13834" max="13834" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13835" max="14078" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14079" max="14079" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14080" max="14080" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14081" max="14081" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14082" max="14082" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14083" max="14083" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14084" max="14084" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14085" max="14085" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14086" max="14086" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14087" max="14087" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14088" max="14088" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14089" max="14089" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14090" max="14090" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14091" max="14334" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14335" max="14335" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14336" max="14336" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14337" max="14337" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14338" max="14338" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14339" max="14339" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14340" max="14340" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14341" max="14341" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14342" max="14342" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14343" max="14343" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14344" max="14344" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14345" max="14345" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14346" max="14346" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14347" max="14590" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14591" max="14591" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14592" max="14592" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14593" max="14593" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14594" max="14594" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14595" max="14595" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14596" max="14596" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14597" max="14597" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14598" max="14598" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14599" max="14599" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14600" max="14600" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14601" max="14601" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14602" max="14602" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14603" max="14846" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14847" max="14847" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14848" max="14848" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14849" max="14849" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14850" max="14850" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14851" max="14851" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14852" max="14852" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14853" max="14853" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14854" max="14854" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14855" max="14855" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14856" max="14856" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14857" max="14857" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14858" max="14858" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14859" max="15102" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15103" max="15103" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15104" max="15104" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15105" max="15105" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15106" max="15106" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15107" max="15107" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15108" max="15108" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15109" max="15109" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15110" max="15110" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15111" max="15111" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15112" max="15112" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15113" max="15113" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15114" max="15114" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15115" max="15358" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15359" max="15359" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15360" max="15360" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15361" max="15361" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15362" max="15362" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15363" max="15363" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15364" max="15364" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15365" max="15365" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15366" max="15366" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15367" max="15367" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15368" max="15368" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15369" max="15369" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15370" max="15370" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15371" max="15614" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15615" max="15615" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15616" max="15616" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15617" max="15617" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15618" max="15618" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15619" max="15619" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15620" max="15620" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15621" max="15621" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15622" max="15622" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15623" max="15623" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15624" max="15624" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15625" max="15625" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15626" max="15626" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15627" max="15870" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15871" max="15871" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15872" max="15872" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15873" max="15873" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15874" max="15874" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15875" max="15875" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15876" max="15876" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15877" max="15877" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15878" max="15878" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15879" max="15879" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15880" max="15880" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15881" max="15881" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15882" max="15882" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15883" max="16126" style="7" width="17.28515625" collapsed="true"/>
+    <col min="16127" max="16127" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="16128" max="16128" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="16129" max="16129" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="16130" max="16130" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="16131" max="16131" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="16132" max="16132" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="16133" max="16133" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="16134" max="16134" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="16135" max="16135" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="16136" max="16136" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="16137" max="16137" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="16138" max="16138" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="16139" max="16384" style="7" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2581,80 +4051,80 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="53"/>
+      <c r="I6" t="s" s="258">
+        <v>152</v>
+      </c>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>96</v>
+      <c r="I8" t="s" s="259">
+        <v>152</v>
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="62" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -2669,19 +4139,19 @@
       <c r="G9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>96</v>
+      <c r="I9" t="s" s="260">
+        <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -2694,11 +4164,11 @@
       <c r="G10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>96</v>
+      <c r="I10" t="s" s="261">
+        <v>152</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -2706,50 +4176,50 @@
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="62" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="67" t="s">
-        <v>96</v>
+      <c r="I11" t="s" s="262">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="61"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2762,21 +4232,21 @@
       <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>96</v>
+      <c r="I13" t="s" s="263">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2785,19 +4255,19 @@
       <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>96</v>
+      <c r="I14" t="s" s="264">
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="54"/>
+        <v>95</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2808,21 +4278,21 @@
         <v>51</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>96</v>
+      <c r="I15" t="s" s="265">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="55"/>
+        <v>96</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
@@ -2835,18 +4305,18 @@
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>96</v>
+      <c r="I16" t="s" s="266">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="57"/>
+        <v>97</v>
+      </c>
+      <c r="B17" s="70"/>
       <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
@@ -2862,18 +4332,18 @@
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>96</v>
+      <c r="I17" t="s" s="268">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="58"/>
+        <v>98</v>
+      </c>
+      <c r="B18" s="69"/>
       <c r="C18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2889,21 +4359,21 @@
       <c r="G18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="33" t="s">
-        <v>96</v>
+      <c r="I18" t="s" s="269">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2918,19 +4388,19 @@
       <c r="G19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>96</v>
+      <c r="I19" t="s" s="270">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+        <v>100</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2943,19 +4413,19 @@
       <c r="G20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>96</v>
+      <c r="I20" t="s" s="271">
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+        <v>101</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2968,19 +4438,19 @@
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="36" t="s">
-        <v>96</v>
+      <c r="I21" t="s" s="272">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+        <v>102</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="5" t="s">
         <v>76</v>
       </c>
@@ -2993,19 +4463,19 @@
       <c r="G22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>96</v>
+      <c r="I22" t="s" s="273">
+        <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+        <v>103</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="5" t="s">
         <v>79</v>
       </c>
@@ -3018,19 +4488,19 @@
       <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="38" t="s">
-        <v>96</v>
+      <c r="I23" t="s" s="274">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+        <v>104</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="5" t="s">
         <v>80</v>
       </c>
@@ -3043,19 +4513,19 @@
       <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="40" t="s">
-        <v>96</v>
+      <c r="I24" t="s" s="276">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+        <v>105</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="5" t="s">
         <v>81</v>
       </c>
@@ -3068,19 +4538,19 @@
       <c r="G25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="41" t="s">
-        <v>96</v>
+      <c r="I25" t="s" s="277">
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+        <v>106</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="5" t="s">
         <v>82</v>
       </c>
@@ -3093,19 +4563,19 @@
       <c r="G26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="42" t="s">
-        <v>96</v>
+      <c r="I26" t="s" s="278">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="5" t="s">
         <v>92</v>
       </c>
@@ -3118,288 +4588,289 @@
       <c r="G27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="39" t="s">
-        <v>96</v>
+      <c r="I27" t="s" s="275">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>141</v>
+      <c r="H28" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" t="s" s="248">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>96</v>
+      <c r="H29" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s" s="249">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="45" t="s">
-        <v>96</v>
+      <c r="H30" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" t="s" s="250">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
+      <c r="A31" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>96</v>
+      <c r="H31" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" t="s" s="251">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>96</v>
+      <c r="H32" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" t="s" s="252">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>96</v>
+      <c r="H33" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s" s="253">
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="53" t="s">
-        <v>123</v>
+      <c r="A34" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="62" t="s">
+        <v>121</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>96</v>
+      <c r="H34" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" t="s" s="254">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>96</v>
+      <c r="H35" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s" s="255">
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>96</v>
+      <c r="H36" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s" s="256">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>96</v>
+      <c r="H37" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I37" t="s" s="257">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="20">
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="B19:B37"/>
+    <mergeCell ref="C28:C33"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C28:C33"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -624,12 +624,16 @@
   <si>
     <t>ClosingCover_Letter_EntryLevel()</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +995,192 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1344,7 +1534,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,6 +1668,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -1834,836 +2055,836 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="89.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="254" width="17.28515625" style="7" collapsed="1"/>
-    <col min="255" max="255" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="256" max="256" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="257" max="257" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="258" max="258" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="259" max="259" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="260" max="260" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="261" max="261" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="262" max="262" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="263" max="263" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="264" max="264" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="265" max="265" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="266" max="266" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="267" max="510" width="17.28515625" style="7" collapsed="1"/>
-    <col min="511" max="511" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="512" max="512" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="513" max="513" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="514" max="514" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="515" max="515" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="516" max="516" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="517" max="517" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="518" max="518" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="519" max="519" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="520" max="520" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="521" max="521" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="522" max="522" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="523" max="766" width="17.28515625" style="7" collapsed="1"/>
-    <col min="767" max="767" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="768" max="768" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="769" max="769" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="770" max="770" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="771" max="771" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="772" max="772" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="773" max="773" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="774" max="774" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="775" max="775" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="776" max="776" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="777" max="777" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="778" max="778" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="779" max="1022" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1023" max="1023" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1024" max="1024" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1025" max="1025" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1026" max="1026" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1027" max="1027" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1028" max="1028" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1029" max="1029" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1030" max="1030" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1031" max="1031" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1032" max="1032" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1033" max="1033" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1034" max="1034" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1035" max="1278" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1279" max="1279" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1280" max="1280" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1281" max="1281" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1282" max="1282" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1283" max="1283" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1284" max="1284" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1285" max="1285" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1286" max="1286" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1287" max="1287" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1288" max="1288" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1289" max="1289" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1290" max="1290" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1291" max="1534" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1535" max="1535" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1536" max="1536" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1537" max="1537" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1538" max="1538" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1539" max="1539" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1540" max="1540" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1541" max="1541" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1542" max="1542" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1543" max="1543" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1544" max="1544" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1545" max="1545" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1546" max="1546" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1547" max="1790" width="17.28515625" style="7" collapsed="1"/>
-    <col min="1791" max="1791" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1792" max="1792" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="1793" max="1793" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1794" max="1794" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1795" max="1795" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1796" max="1796" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="1797" max="1797" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1798" max="1798" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1799" max="1799" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="1800" max="1800" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1801" max="1801" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="1802" max="1802" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="1803" max="2046" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2047" max="2047" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2048" max="2048" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2049" max="2049" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2050" max="2050" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2051" max="2051" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2052" max="2052" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2053" max="2053" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2054" max="2054" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2055" max="2055" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2056" max="2056" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2057" max="2057" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2058" max="2058" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2059" max="2302" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2303" max="2303" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2304" max="2304" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2305" max="2305" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2306" max="2306" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2307" max="2307" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2308" max="2308" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2309" max="2309" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2310" max="2310" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2311" max="2311" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2312" max="2312" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2313" max="2313" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2314" max="2314" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2315" max="2558" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2559" max="2559" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2560" max="2560" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2561" max="2561" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2562" max="2562" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2563" max="2563" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2564" max="2564" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2565" max="2565" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2566" max="2566" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2567" max="2567" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2568" max="2568" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2569" max="2569" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2570" max="2570" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2571" max="2814" width="17.28515625" style="7" collapsed="1"/>
-    <col min="2815" max="2815" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2816" max="2816" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="2817" max="2817" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2818" max="2818" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2819" max="2819" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2820" max="2820" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2821" max="2821" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2822" max="2822" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2823" max="2823" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2824" max="2824" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2825" max="2825" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2826" max="2826" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="2827" max="3070" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3071" max="3071" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3072" max="3072" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3073" max="3073" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3074" max="3074" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3075" max="3075" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3076" max="3076" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3077" max="3077" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3078" max="3078" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3079" max="3079" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3080" max="3080" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3081" max="3081" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3082" max="3082" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3083" max="3326" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3327" max="3327" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3328" max="3328" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3329" max="3329" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3330" max="3330" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3331" max="3331" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3332" max="3332" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3333" max="3333" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3334" max="3334" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3335" max="3335" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3336" max="3336" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3337" max="3337" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3338" max="3338" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3339" max="3582" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3583" max="3583" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3584" max="3584" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3585" max="3585" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3586" max="3586" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3587" max="3587" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3588" max="3588" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3589" max="3589" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3590" max="3590" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3591" max="3591" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3592" max="3592" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3593" max="3593" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3594" max="3594" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3595" max="3838" width="17.28515625" style="7" collapsed="1"/>
-    <col min="3839" max="3839" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3840" max="3840" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="3841" max="3841" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3842" max="3842" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3843" max="3843" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3844" max="3844" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="3845" max="3845" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3846" max="3846" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3847" max="3847" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3848" max="3848" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3849" max="3849" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3850" max="3850" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="3851" max="4094" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4095" max="4095" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4096" max="4096" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4097" max="4097" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4098" max="4098" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4099" max="4099" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4100" max="4100" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4101" max="4101" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4102" max="4102" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4103" max="4103" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4104" max="4104" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4105" max="4105" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4106" max="4106" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4107" max="4350" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4351" max="4351" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4352" max="4352" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4353" max="4353" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4354" max="4354" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4355" max="4355" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4356" max="4356" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4357" max="4357" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4358" max="4358" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4359" max="4359" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4360" max="4360" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4361" max="4361" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4362" max="4362" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4363" max="4606" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4607" max="4607" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4608" max="4608" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4609" max="4609" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4610" max="4610" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4611" max="4611" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4612" max="4612" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4613" max="4613" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4614" max="4614" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4615" max="4615" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4616" max="4616" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4617" max="4617" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4618" max="4618" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4619" max="4862" width="17.28515625" style="7" collapsed="1"/>
-    <col min="4863" max="4863" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4864" max="4864" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="4865" max="4865" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4866" max="4866" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4867" max="4867" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4868" max="4868" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="4869" max="4869" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4870" max="4870" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4871" max="4871" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="4872" max="4872" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4873" max="4873" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="4874" max="4874" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4875" max="5118" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5119" max="5119" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5120" max="5120" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5121" max="5121" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5122" max="5122" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5123" max="5123" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5124" max="5124" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5125" max="5125" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5126" max="5126" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5127" max="5127" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5128" max="5128" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5129" max="5129" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5130" max="5130" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5131" max="5374" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5375" max="5375" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5376" max="5376" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5377" max="5377" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5378" max="5378" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5379" max="5379" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5380" max="5380" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5381" max="5381" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5382" max="5382" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5383" max="5383" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5384" max="5384" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5385" max="5385" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5386" max="5386" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5387" max="5630" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5631" max="5631" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5632" max="5632" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5633" max="5633" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5634" max="5634" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5635" max="5635" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5636" max="5636" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5637" max="5637" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5638" max="5638" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5639" max="5639" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5640" max="5640" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5641" max="5641" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5642" max="5642" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5643" max="5886" width="17.28515625" style="7" collapsed="1"/>
-    <col min="5887" max="5887" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5888" max="5888" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="5889" max="5889" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5890" max="5890" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5891" max="5891" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5892" max="5892" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="5893" max="5893" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5894" max="5894" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5895" max="5895" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="5896" max="5896" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5897" max="5897" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5898" max="5898" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="5899" max="6142" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6143" max="6143" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6144" max="6144" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6145" max="6145" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6146" max="6146" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6147" max="6147" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6148" max="6148" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6149" max="6149" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6150" max="6150" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6151" max="6151" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6152" max="6152" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6153" max="6153" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6154" max="6154" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6155" max="6398" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6399" max="6399" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6400" max="6400" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6401" max="6401" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6402" max="6402" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6403" max="6403" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6404" max="6404" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6405" max="6405" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6406" max="6406" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6407" max="6407" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6408" max="6408" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6409" max="6409" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6410" max="6410" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6411" max="6654" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6655" max="6655" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6656" max="6656" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6657" max="6657" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6658" max="6658" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6659" max="6659" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6660" max="6660" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6661" max="6661" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6662" max="6662" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6663" max="6663" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6664" max="6664" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6665" max="6665" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6666" max="6666" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6667" max="6910" width="17.28515625" style="7" collapsed="1"/>
-    <col min="6911" max="6911" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6912" max="6912" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="6913" max="6913" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6914" max="6914" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6915" max="6915" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6916" max="6916" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="6917" max="6917" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6918" max="6918" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6919" max="6919" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="6920" max="6920" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6921" max="6921" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="6922" max="6922" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6923" max="7166" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7167" max="7167" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7168" max="7168" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7169" max="7169" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7170" max="7170" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7171" max="7171" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7172" max="7172" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7173" max="7173" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7174" max="7174" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7175" max="7175" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7176" max="7176" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7177" max="7177" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7178" max="7178" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7179" max="7422" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7423" max="7423" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7424" max="7424" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7425" max="7425" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7426" max="7426" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7427" max="7427" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7428" max="7428" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7429" max="7429" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7430" max="7430" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7431" max="7431" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7432" max="7432" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7433" max="7433" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7434" max="7434" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7435" max="7678" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7679" max="7679" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7680" max="7680" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7681" max="7681" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7682" max="7682" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7683" max="7683" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7684" max="7684" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7685" max="7685" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7686" max="7686" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7687" max="7687" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7688" max="7688" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7689" max="7689" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7690" max="7690" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7691" max="7934" width="17.28515625" style="7" collapsed="1"/>
-    <col min="7935" max="7935" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7936" max="7936" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="7937" max="7937" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7938" max="7938" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7939" max="7939" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7940" max="7940" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7941" max="7941" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7942" max="7942" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7943" max="7943" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="7944" max="7944" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7945" max="7945" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7946" max="7946" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="7947" max="8190" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8191" max="8191" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8192" max="8192" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8193" max="8193" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8194" max="8194" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8195" max="8195" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8196" max="8196" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8197" max="8197" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8198" max="8198" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8199" max="8199" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8200" max="8200" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8201" max="8201" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8202" max="8202" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8203" max="8446" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8447" max="8447" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8448" max="8448" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8449" max="8449" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8450" max="8450" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8451" max="8451" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8452" max="8452" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8453" max="8453" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8454" max="8454" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8455" max="8455" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8456" max="8456" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8457" max="8457" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8458" max="8458" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8459" max="8702" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8703" max="8703" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8704" max="8704" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8705" max="8705" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8706" max="8706" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8707" max="8707" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8708" max="8708" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8709" max="8709" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8710" max="8710" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8711" max="8711" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8712" max="8712" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8713" max="8713" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8714" max="8714" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8715" max="8958" width="17.28515625" style="7" collapsed="1"/>
-    <col min="8959" max="8959" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8960" max="8960" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="8961" max="8961" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8962" max="8962" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8963" max="8963" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8964" max="8964" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="8965" max="8965" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8966" max="8966" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8967" max="8967" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="8968" max="8968" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8969" max="8969" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8970" max="8970" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="8971" max="9214" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9215" max="9215" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9216" max="9216" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9217" max="9217" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9218" max="9218" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9219" max="9219" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9220" max="9220" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9221" max="9221" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9222" max="9222" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9223" max="9223" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9224" max="9224" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9225" max="9225" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9226" max="9226" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9227" max="9470" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9471" max="9471" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9472" max="9472" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9473" max="9473" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9474" max="9474" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9475" max="9475" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9476" max="9476" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9477" max="9477" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9478" max="9478" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9479" max="9479" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9480" max="9480" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9481" max="9481" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9482" max="9482" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9483" max="9726" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9727" max="9727" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9728" max="9728" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9729" max="9729" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9730" max="9730" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9731" max="9731" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9732" max="9732" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9733" max="9733" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9734" max="9734" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9735" max="9735" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9736" max="9736" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9737" max="9737" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9738" max="9738" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9739" max="9982" width="17.28515625" style="7" collapsed="1"/>
-    <col min="9983" max="9983" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9984" max="9984" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="9985" max="9985" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9986" max="9986" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9987" max="9987" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9988" max="9988" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="9989" max="9989" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9990" max="9990" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9991" max="9991" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="9992" max="9992" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9993" max="9993" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="9994" max="9994" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="9995" max="10238" width="17.28515625" style="7" collapsed="1"/>
-    <col min="10239" max="10239" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10240" max="10240" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="10241" max="10241" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10242" max="10242" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10243" max="10243" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10244" max="10244" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10245" max="10245" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10246" max="10246" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10247" max="10247" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="10248" max="10248" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10249" max="10249" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="10250" max="10250" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10251" max="10494" width="17.28515625" style="7" collapsed="1"/>
-    <col min="10495" max="10495" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10496" max="10496" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="10497" max="10497" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10498" max="10498" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10499" max="10499" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10500" max="10500" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10501" max="10501" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10502" max="10502" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10503" max="10503" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="10504" max="10504" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10505" max="10505" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="10506" max="10506" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10507" max="10750" width="17.28515625" style="7" collapsed="1"/>
-    <col min="10751" max="10751" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10752" max="10752" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="10753" max="10753" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10754" max="10754" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10755" max="10755" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10756" max="10756" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="10757" max="10757" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10758" max="10758" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10759" max="10759" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="10760" max="10760" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10761" max="10761" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="10762" max="10762" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="10763" max="11006" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11007" max="11007" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11008" max="11008" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11009" max="11009" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11010" max="11010" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11011" max="11011" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11012" max="11012" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11013" max="11013" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11014" max="11014" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11015" max="11015" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11016" max="11016" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11017" max="11017" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11018" max="11018" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11019" max="11262" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11263" max="11263" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11264" max="11264" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11265" max="11265" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11266" max="11266" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11267" max="11267" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11268" max="11268" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11269" max="11269" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11270" max="11270" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11271" max="11271" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11272" max="11272" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11273" max="11273" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11274" max="11274" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11275" max="11518" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11519" max="11519" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11520" max="11520" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11521" max="11521" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11522" max="11522" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11523" max="11523" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11524" max="11524" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11525" max="11525" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11526" max="11526" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11527" max="11527" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11528" max="11528" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11529" max="11529" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11530" max="11530" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11531" max="11774" width="17.28515625" style="7" collapsed="1"/>
-    <col min="11775" max="11775" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11776" max="11776" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="11777" max="11777" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11778" max="11778" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11779" max="11779" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11780" max="11780" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="11781" max="11781" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11782" max="11782" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11783" max="11783" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="11784" max="11784" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11785" max="11785" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="11786" max="11786" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="11787" max="12030" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12031" max="12031" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12032" max="12032" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12033" max="12033" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12034" max="12034" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12035" max="12035" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12036" max="12036" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12037" max="12037" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12038" max="12038" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12039" max="12039" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12040" max="12040" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12041" max="12041" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12042" max="12042" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12043" max="12286" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12287" max="12287" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12288" max="12288" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12289" max="12289" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12290" max="12290" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12291" max="12291" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12292" max="12292" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12293" max="12293" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12294" max="12294" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12295" max="12295" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12296" max="12296" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12297" max="12297" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12298" max="12298" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12299" max="12542" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12543" max="12543" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12544" max="12544" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12545" max="12545" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12546" max="12546" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12547" max="12547" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12548" max="12548" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12549" max="12549" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12550" max="12550" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12551" max="12551" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12552" max="12552" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12553" max="12553" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12554" max="12554" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12555" max="12798" width="17.28515625" style="7" collapsed="1"/>
-    <col min="12799" max="12799" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12800" max="12800" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="12801" max="12801" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12802" max="12802" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12803" max="12803" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12804" max="12804" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="12805" max="12805" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12806" max="12806" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12807" max="12807" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="12808" max="12808" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12809" max="12809" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12810" max="12810" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="12811" max="13054" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13055" max="13055" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13056" max="13056" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13057" max="13057" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13058" max="13058" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13059" max="13059" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13060" max="13060" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13061" max="13061" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13062" max="13062" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13063" max="13063" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13064" max="13064" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13065" max="13065" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13066" max="13066" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13067" max="13310" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13311" max="13311" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13312" max="13312" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13313" max="13313" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13314" max="13314" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13315" max="13315" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13316" max="13316" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13317" max="13317" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13318" max="13318" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13319" max="13319" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13320" max="13320" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13321" max="13321" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13322" max="13322" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13323" max="13566" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13567" max="13567" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13568" max="13568" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13569" max="13569" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13570" max="13570" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13571" max="13571" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13572" max="13572" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13573" max="13573" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13574" max="13574" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13575" max="13575" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13576" max="13576" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13577" max="13577" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13578" max="13578" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13579" max="13822" width="17.28515625" style="7" collapsed="1"/>
-    <col min="13823" max="13823" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13824" max="13824" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="13825" max="13825" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13826" max="13826" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13827" max="13827" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13828" max="13828" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="13829" max="13829" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13830" max="13830" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13831" max="13831" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="13832" max="13832" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13833" max="13833" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="13834" max="13834" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="13835" max="14078" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14079" max="14079" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14080" max="14080" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14081" max="14081" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14082" max="14082" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14083" max="14083" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14084" max="14084" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14085" max="14085" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14086" max="14086" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14087" max="14087" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14088" max="14088" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14089" max="14089" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14090" max="14090" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14091" max="14334" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14335" max="14335" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14336" max="14336" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14337" max="14337" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14338" max="14338" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14339" max="14339" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14340" max="14340" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14341" max="14341" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14342" max="14342" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14343" max="14343" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14344" max="14344" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14345" max="14345" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14346" max="14346" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14347" max="14590" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14591" max="14591" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14592" max="14592" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14593" max="14593" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14594" max="14594" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14595" max="14595" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14596" max="14596" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14597" max="14597" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14598" max="14598" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14599" max="14599" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14600" max="14600" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14601" max="14601" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14602" max="14602" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14603" max="14846" width="17.28515625" style="7" collapsed="1"/>
-    <col min="14847" max="14847" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14848" max="14848" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="14849" max="14849" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14850" max="14850" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14851" max="14851" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14852" max="14852" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="14853" max="14853" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14854" max="14854" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14855" max="14855" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14856" max="14856" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14857" max="14857" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="14858" max="14858" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="14859" max="15102" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15103" max="15103" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15104" max="15104" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15105" max="15105" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15106" max="15106" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15107" max="15107" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15108" max="15108" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15109" max="15109" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15110" max="15110" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15111" max="15111" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15112" max="15112" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15113" max="15113" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15114" max="15114" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15115" max="15358" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15359" max="15359" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15360" max="15360" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15361" max="15361" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15362" max="15362" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15363" max="15363" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15364" max="15364" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15365" max="15365" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15366" max="15366" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15367" max="15367" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15368" max="15368" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15369" max="15369" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15370" max="15370" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15371" max="15614" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15615" max="15615" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15616" max="15616" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15617" max="15617" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15618" max="15618" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15619" max="15619" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15620" max="15620" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15621" max="15621" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15622" max="15622" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15623" max="15623" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15624" max="15624" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15625" max="15625" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15626" max="15626" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15627" max="15870" width="17.28515625" style="7" collapsed="1"/>
-    <col min="15871" max="15871" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15872" max="15872" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="15873" max="15873" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15874" max="15874" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15875" max="15875" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15876" max="15876" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15877" max="15877" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15878" max="15878" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15879" max="15879" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="15880" max="15880" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15881" max="15881" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="15882" max="15882" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="15883" max="16126" width="17.28515625" style="7" collapsed="1"/>
-    <col min="16127" max="16127" width="8.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16128" max="16128" width="19" style="7" customWidth="1" collapsed="1"/>
-    <col min="16129" max="16129" width="50.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16130" max="16130" width="56.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16131" max="16131" width="7.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16132" max="16132" width="36.5703125" style="7" customWidth="1" collapsed="1"/>
-    <col min="16133" max="16133" width="62.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16134" max="16134" width="38.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16135" max="16135" width="22.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="16136" max="16136" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="16137" max="16137" width="14.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="16138" max="16138" width="19.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="16139" max="16384" width="17.28515625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="41.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="89.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="6.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="41.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="37.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="16" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="26.85546875" collapsed="true"/>
+    <col min="11" max="254" style="7" width="17.28515625" collapsed="true"/>
+    <col min="255" max="255" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="256" max="256" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="257" max="257" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="258" max="258" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="259" max="259" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="260" max="260" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="261" max="261" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="262" max="262" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="263" max="263" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="264" max="264" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="265" max="265" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="266" max="266" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="267" max="510" style="7" width="17.28515625" collapsed="true"/>
+    <col min="511" max="511" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="512" max="512" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="513" max="513" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="514" max="514" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="515" max="515" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="516" max="516" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="517" max="517" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="518" max="518" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="519" max="519" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="520" max="520" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="521" max="521" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="522" max="522" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="523" max="766" style="7" width="17.28515625" collapsed="true"/>
+    <col min="767" max="767" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="768" max="768" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="769" max="769" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="770" max="770" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="771" max="771" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="772" max="772" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="773" max="773" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="774" max="774" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="775" max="775" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="776" max="776" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="777" max="777" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="778" max="778" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="779" max="1022" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1023" max="1023" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1024" max="1024" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1025" max="1025" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1026" max="1026" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1027" max="1027" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1028" max="1028" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1029" max="1029" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1030" max="1030" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1031" max="1031" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1032" max="1032" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1033" max="1033" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1034" max="1034" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1035" max="1278" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1279" max="1279" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1280" max="1280" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1281" max="1281" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1282" max="1282" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1283" max="1283" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1284" max="1284" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1285" max="1285" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1286" max="1286" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1287" max="1287" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1288" max="1288" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1289" max="1289" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1290" max="1290" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1291" max="1534" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1535" max="1535" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1536" max="1536" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1537" max="1537" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1538" max="1538" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1539" max="1539" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1540" max="1540" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1541" max="1541" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1542" max="1542" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1543" max="1543" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1544" max="1544" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1545" max="1545" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1546" max="1546" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1547" max="1790" style="7" width="17.28515625" collapsed="true"/>
+    <col min="1791" max="1791" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="1792" max="1792" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="1793" max="1793" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="1794" max="1794" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="1795" max="1795" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="1796" max="1796" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="1797" max="1797" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="1798" max="1798" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="1799" max="1799" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="1800" max="1800" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1801" max="1801" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="1802" max="1802" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="1803" max="2046" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2047" max="2047" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2048" max="2048" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2049" max="2049" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2050" max="2050" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2051" max="2051" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2052" max="2052" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2053" max="2053" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2054" max="2054" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2055" max="2055" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2056" max="2056" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2057" max="2057" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2058" max="2058" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2059" max="2302" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2303" max="2303" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2304" max="2304" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2305" max="2305" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2306" max="2306" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2307" max="2307" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2308" max="2308" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2309" max="2309" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2310" max="2310" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2311" max="2311" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2312" max="2312" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2313" max="2313" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2314" max="2314" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2315" max="2558" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2559" max="2559" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2560" max="2560" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2561" max="2561" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2562" max="2562" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2563" max="2563" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2564" max="2564" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2565" max="2565" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2566" max="2566" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2567" max="2567" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2568" max="2568" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2569" max="2569" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2570" max="2570" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2571" max="2814" style="7" width="17.28515625" collapsed="true"/>
+    <col min="2815" max="2815" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="2816" max="2816" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="2817" max="2817" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="2818" max="2818" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="2819" max="2819" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="2820" max="2820" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="2821" max="2821" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="2822" max="2822" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="2823" max="2823" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="2824" max="2824" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2825" max="2825" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="2826" max="2826" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="2827" max="3070" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3071" max="3071" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3072" max="3072" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3073" max="3073" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3074" max="3074" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3075" max="3075" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3076" max="3076" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3077" max="3077" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3078" max="3078" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3079" max="3079" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3080" max="3080" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3081" max="3081" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3082" max="3082" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3083" max="3326" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3327" max="3327" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3328" max="3328" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3329" max="3329" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3330" max="3330" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3331" max="3331" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3332" max="3332" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3333" max="3333" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3334" max="3334" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3335" max="3335" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3336" max="3336" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3337" max="3337" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3338" max="3338" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3339" max="3582" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3583" max="3583" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3584" max="3584" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3585" max="3585" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3586" max="3586" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3587" max="3587" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3588" max="3588" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3589" max="3589" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3590" max="3590" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3591" max="3591" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3592" max="3592" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3593" max="3593" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3594" max="3594" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3595" max="3838" style="7" width="17.28515625" collapsed="true"/>
+    <col min="3839" max="3839" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="3840" max="3840" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="3841" max="3841" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="3842" max="3842" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="3843" max="3843" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="3844" max="3844" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="3845" max="3845" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="3846" max="3846" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="3847" max="3847" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="3848" max="3848" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3849" max="3849" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="3850" max="3850" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="3851" max="4094" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4095" max="4095" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4096" max="4096" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4097" max="4097" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4098" max="4098" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4099" max="4099" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4100" max="4100" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4101" max="4101" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4102" max="4102" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4103" max="4103" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4104" max="4104" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4105" max="4105" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4106" max="4106" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4107" max="4350" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4351" max="4351" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4352" max="4352" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4353" max="4353" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4354" max="4354" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4355" max="4355" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4356" max="4356" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4357" max="4357" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4358" max="4358" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4359" max="4359" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4360" max="4360" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4361" max="4361" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4362" max="4362" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4363" max="4606" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4607" max="4607" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4608" max="4608" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4609" max="4609" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4610" max="4610" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4611" max="4611" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4612" max="4612" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4613" max="4613" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4614" max="4614" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4615" max="4615" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4616" max="4616" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4617" max="4617" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4618" max="4618" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4619" max="4862" style="7" width="17.28515625" collapsed="true"/>
+    <col min="4863" max="4863" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="4864" max="4864" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="4865" max="4865" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="4866" max="4866" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="4867" max="4867" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="4868" max="4868" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="4869" max="4869" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="4870" max="4870" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="4871" max="4871" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="4872" max="4872" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4873" max="4873" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="4874" max="4874" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="4875" max="5118" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5119" max="5119" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5120" max="5120" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5121" max="5121" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5122" max="5122" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5123" max="5123" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5124" max="5124" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5125" max="5125" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5126" max="5126" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5127" max="5127" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5128" max="5128" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5129" max="5129" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5130" max="5130" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5131" max="5374" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5375" max="5375" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5376" max="5376" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5377" max="5377" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5378" max="5378" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5379" max="5379" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5380" max="5380" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5381" max="5381" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5382" max="5382" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5383" max="5383" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5384" max="5384" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5385" max="5385" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5386" max="5386" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5387" max="5630" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5631" max="5631" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5632" max="5632" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5633" max="5633" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5634" max="5634" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5635" max="5635" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5636" max="5636" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5637" max="5637" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5638" max="5638" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5639" max="5639" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5640" max="5640" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5641" max="5641" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5642" max="5642" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5643" max="5886" style="7" width="17.28515625" collapsed="true"/>
+    <col min="5887" max="5887" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="5888" max="5888" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="5889" max="5889" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="5890" max="5890" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="5891" max="5891" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="5892" max="5892" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="5893" max="5893" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="5894" max="5894" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="5895" max="5895" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="5896" max="5896" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5897" max="5897" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="5898" max="5898" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="5899" max="6142" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6143" max="6143" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6144" max="6144" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6145" max="6145" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6146" max="6146" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6147" max="6147" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6148" max="6148" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6149" max="6149" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6150" max="6150" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6151" max="6151" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6152" max="6152" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6153" max="6153" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6154" max="6154" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6155" max="6398" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6399" max="6399" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6400" max="6400" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6401" max="6401" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6402" max="6402" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6403" max="6403" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6404" max="6404" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6405" max="6405" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6406" max="6406" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6407" max="6407" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6408" max="6408" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6409" max="6409" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6410" max="6410" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6411" max="6654" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6655" max="6655" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6656" max="6656" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6657" max="6657" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6658" max="6658" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6659" max="6659" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6660" max="6660" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6661" max="6661" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6662" max="6662" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6663" max="6663" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6664" max="6664" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6665" max="6665" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6666" max="6666" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6667" max="6910" style="7" width="17.28515625" collapsed="true"/>
+    <col min="6911" max="6911" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="6912" max="6912" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="6913" max="6913" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="6914" max="6914" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="6915" max="6915" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="6916" max="6916" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="6917" max="6917" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="6918" max="6918" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="6919" max="6919" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="6920" max="6920" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6921" max="6921" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="6922" max="6922" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="6923" max="7166" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7167" max="7167" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7168" max="7168" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7169" max="7169" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7170" max="7170" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7171" max="7171" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7172" max="7172" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7173" max="7173" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7174" max="7174" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7175" max="7175" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7176" max="7176" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7177" max="7177" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7178" max="7178" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7179" max="7422" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7423" max="7423" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7424" max="7424" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7425" max="7425" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7426" max="7426" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7427" max="7427" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7428" max="7428" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7429" max="7429" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7430" max="7430" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7431" max="7431" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7432" max="7432" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7433" max="7433" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7434" max="7434" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7435" max="7678" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7679" max="7679" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7680" max="7680" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7681" max="7681" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7682" max="7682" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7683" max="7683" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7684" max="7684" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7685" max="7685" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7686" max="7686" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7687" max="7687" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7688" max="7688" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7689" max="7689" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7690" max="7690" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7691" max="7934" style="7" width="17.28515625" collapsed="true"/>
+    <col min="7935" max="7935" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="7936" max="7936" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="7937" max="7937" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="7938" max="7938" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="7939" max="7939" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="7940" max="7940" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="7941" max="7941" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="7942" max="7942" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="7943" max="7943" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="7944" max="7944" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7945" max="7945" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="7946" max="7946" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="7947" max="8190" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8191" max="8191" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8192" max="8192" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8193" max="8193" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8194" max="8194" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8195" max="8195" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8196" max="8196" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8197" max="8197" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8198" max="8198" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8199" max="8199" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8200" max="8200" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8201" max="8201" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8202" max="8202" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8203" max="8446" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8447" max="8447" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8448" max="8448" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8449" max="8449" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8450" max="8450" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8451" max="8451" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8452" max="8452" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8453" max="8453" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8454" max="8454" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8455" max="8455" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8456" max="8456" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8457" max="8457" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8458" max="8458" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8459" max="8702" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8703" max="8703" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8704" max="8704" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8705" max="8705" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8706" max="8706" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8707" max="8707" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8708" max="8708" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8709" max="8709" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8710" max="8710" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8711" max="8711" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8712" max="8712" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8713" max="8713" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8714" max="8714" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8715" max="8958" style="7" width="17.28515625" collapsed="true"/>
+    <col min="8959" max="8959" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8960" max="8960" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="8961" max="8961" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="8962" max="8962" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="8963" max="8963" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="8964" max="8964" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="8965" max="8965" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="8966" max="8966" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="8967" max="8967" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="8968" max="8968" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8969" max="8969" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="8970" max="8970" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="8971" max="9214" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9215" max="9215" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9216" max="9216" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9217" max="9217" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9218" max="9218" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9219" max="9219" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9220" max="9220" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9221" max="9221" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9222" max="9222" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9223" max="9223" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9224" max="9224" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9225" max="9225" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9226" max="9226" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9227" max="9470" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9471" max="9471" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9472" max="9472" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9473" max="9473" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9474" max="9474" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9475" max="9475" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9476" max="9476" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9477" max="9477" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9478" max="9478" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9479" max="9479" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9480" max="9480" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9481" max="9481" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9482" max="9482" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9483" max="9726" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9727" max="9727" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9728" max="9728" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9729" max="9729" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9730" max="9730" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9731" max="9731" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9732" max="9732" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9733" max="9733" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9734" max="9734" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9735" max="9735" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9736" max="9736" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9737" max="9737" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9738" max="9738" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9739" max="9982" style="7" width="17.28515625" collapsed="true"/>
+    <col min="9983" max="9983" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="9984" max="9984" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="9985" max="9985" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="9986" max="9986" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="9987" max="9987" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="9988" max="9988" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="9989" max="9989" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="9990" max="9990" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="9991" max="9991" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="9992" max="9992" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9993" max="9993" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="9994" max="9994" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="9995" max="10238" style="7" width="17.28515625" collapsed="true"/>
+    <col min="10239" max="10239" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="10240" max="10240" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="10241" max="10241" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="10242" max="10242" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="10243" max="10243" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="10244" max="10244" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="10245" max="10245" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="10246" max="10246" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="10247" max="10247" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="10248" max="10248" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10249" max="10249" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="10250" max="10250" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10251" max="10494" style="7" width="17.28515625" collapsed="true"/>
+    <col min="10495" max="10495" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="10496" max="10496" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="10497" max="10497" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="10498" max="10498" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="10499" max="10499" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="10500" max="10500" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="10501" max="10501" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="10502" max="10502" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="10503" max="10503" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="10504" max="10504" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10505" max="10505" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="10506" max="10506" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10507" max="10750" style="7" width="17.28515625" collapsed="true"/>
+    <col min="10751" max="10751" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="10752" max="10752" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="10753" max="10753" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="10754" max="10754" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="10755" max="10755" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="10756" max="10756" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="10757" max="10757" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="10758" max="10758" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="10759" max="10759" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="10760" max="10760" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10761" max="10761" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="10762" max="10762" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="10763" max="11006" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11007" max="11007" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11008" max="11008" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11009" max="11009" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11010" max="11010" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11011" max="11011" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11012" max="11012" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11013" max="11013" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11014" max="11014" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11015" max="11015" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11016" max="11016" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11017" max="11017" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11018" max="11018" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11019" max="11262" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11263" max="11263" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11264" max="11264" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11265" max="11265" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11266" max="11266" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11267" max="11267" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11268" max="11268" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11269" max="11269" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11270" max="11270" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11271" max="11271" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11272" max="11272" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11273" max="11273" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11274" max="11274" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11275" max="11518" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11519" max="11519" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11520" max="11520" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11521" max="11521" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11522" max="11522" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11523" max="11523" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11524" max="11524" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11525" max="11525" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11526" max="11526" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11527" max="11527" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11528" max="11528" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11529" max="11529" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11530" max="11530" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11531" max="11774" style="7" width="17.28515625" collapsed="true"/>
+    <col min="11775" max="11775" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="11776" max="11776" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="11777" max="11777" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="11778" max="11778" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="11779" max="11779" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="11780" max="11780" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="11781" max="11781" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="11782" max="11782" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="11783" max="11783" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="11784" max="11784" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11785" max="11785" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="11786" max="11786" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="11787" max="12030" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12031" max="12031" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12032" max="12032" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12033" max="12033" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12034" max="12034" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12035" max="12035" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12036" max="12036" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12037" max="12037" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12038" max="12038" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12039" max="12039" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12040" max="12040" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12041" max="12041" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12042" max="12042" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12043" max="12286" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12287" max="12287" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12288" max="12288" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12289" max="12289" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12290" max="12290" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12291" max="12291" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12292" max="12292" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12293" max="12293" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12294" max="12294" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12295" max="12295" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12296" max="12296" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12297" max="12297" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12298" max="12298" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12299" max="12542" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12543" max="12543" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12544" max="12544" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12545" max="12545" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12546" max="12546" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12547" max="12547" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12548" max="12548" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12549" max="12549" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12550" max="12550" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12551" max="12551" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12552" max="12552" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12553" max="12553" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12554" max="12554" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12555" max="12798" style="7" width="17.28515625" collapsed="true"/>
+    <col min="12799" max="12799" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="12800" max="12800" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="12801" max="12801" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="12802" max="12802" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="12803" max="12803" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="12804" max="12804" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="12805" max="12805" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="12806" max="12806" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="12807" max="12807" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="12808" max="12808" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12809" max="12809" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="12810" max="12810" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="12811" max="13054" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13055" max="13055" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13056" max="13056" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13057" max="13057" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13058" max="13058" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13059" max="13059" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13060" max="13060" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13061" max="13061" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13062" max="13062" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13063" max="13063" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13064" max="13064" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13065" max="13065" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13066" max="13066" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13067" max="13310" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13311" max="13311" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13312" max="13312" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13313" max="13313" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13314" max="13314" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13315" max="13315" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13316" max="13316" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13317" max="13317" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13318" max="13318" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13319" max="13319" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13320" max="13320" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13321" max="13321" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13322" max="13322" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13323" max="13566" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13567" max="13567" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13568" max="13568" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13569" max="13569" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13570" max="13570" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13571" max="13571" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13572" max="13572" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13573" max="13573" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13574" max="13574" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13575" max="13575" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13576" max="13576" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13577" max="13577" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13578" max="13578" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13579" max="13822" style="7" width="17.28515625" collapsed="true"/>
+    <col min="13823" max="13823" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="13824" max="13824" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="13825" max="13825" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="13826" max="13826" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="13827" max="13827" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="13828" max="13828" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="13829" max="13829" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="13830" max="13830" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="13831" max="13831" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="13832" max="13832" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13833" max="13833" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="13834" max="13834" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="13835" max="14078" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14079" max="14079" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14080" max="14080" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14081" max="14081" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14082" max="14082" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14083" max="14083" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14084" max="14084" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14085" max="14085" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14086" max="14086" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14087" max="14087" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14088" max="14088" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14089" max="14089" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14090" max="14090" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14091" max="14334" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14335" max="14335" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14336" max="14336" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14337" max="14337" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14338" max="14338" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14339" max="14339" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14340" max="14340" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14341" max="14341" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14342" max="14342" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14343" max="14343" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14344" max="14344" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14345" max="14345" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14346" max="14346" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14347" max="14590" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14591" max="14591" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14592" max="14592" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14593" max="14593" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14594" max="14594" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14595" max="14595" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14596" max="14596" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14597" max="14597" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14598" max="14598" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14599" max="14599" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14600" max="14600" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14601" max="14601" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14602" max="14602" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14603" max="14846" style="7" width="17.28515625" collapsed="true"/>
+    <col min="14847" max="14847" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="14848" max="14848" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="14849" max="14849" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="14850" max="14850" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="14851" max="14851" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="14852" max="14852" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="14853" max="14853" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="14854" max="14854" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="14855" max="14855" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="14856" max="14856" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14857" max="14857" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="14858" max="14858" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="14859" max="15102" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15103" max="15103" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15104" max="15104" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15105" max="15105" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15106" max="15106" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15107" max="15107" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15108" max="15108" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15109" max="15109" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15110" max="15110" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15111" max="15111" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15112" max="15112" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15113" max="15113" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15114" max="15114" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15115" max="15358" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15359" max="15359" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15360" max="15360" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15361" max="15361" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15362" max="15362" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15363" max="15363" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15364" max="15364" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15365" max="15365" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15366" max="15366" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15367" max="15367" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15368" max="15368" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15369" max="15369" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15370" max="15370" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15371" max="15614" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15615" max="15615" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15616" max="15616" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15617" max="15617" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15618" max="15618" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15619" max="15619" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15620" max="15620" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15621" max="15621" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15622" max="15622" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15623" max="15623" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15624" max="15624" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15625" max="15625" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15626" max="15626" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15627" max="15870" style="7" width="17.28515625" collapsed="true"/>
+    <col min="15871" max="15871" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="15872" max="15872" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="15873" max="15873" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="15874" max="15874" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="15875" max="15875" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="15876" max="15876" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="15877" max="15877" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="15878" max="15878" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="15879" max="15879" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="15880" max="15880" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15881" max="15881" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="15882" max="15882" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="15883" max="16126" style="7" width="17.28515625" collapsed="true"/>
+    <col min="16127" max="16127" bestFit="true" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="16128" max="16128" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="16129" max="16129" customWidth="true" style="7" width="50.42578125" collapsed="true"/>
+    <col min="16130" max="16130" bestFit="true" customWidth="true" style="7" width="56.28515625" collapsed="true"/>
+    <col min="16131" max="16131" bestFit="true" customWidth="true" style="7" width="7.42578125" collapsed="true"/>
+    <col min="16132" max="16132" customWidth="true" style="7" width="36.5703125" collapsed="true"/>
+    <col min="16133" max="16133" bestFit="true" customWidth="true" style="7" width="62.85546875" collapsed="true"/>
+    <col min="16134" max="16134" bestFit="true" customWidth="true" style="7" width="38.85546875" collapsed="true"/>
+    <col min="16135" max="16135" customWidth="true" style="7" width="22.85546875" collapsed="true"/>
+    <col min="16136" max="16136" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="16137" max="16137" customWidth="true" style="7" width="14.140625" collapsed="true"/>
+    <col min="16138" max="16138" customWidth="true" style="7" width="19.7109375" collapsed="true"/>
+    <col min="16139" max="16384" style="7" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,7 +3000,7 @@
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" t="s" s="73">
         <v>153</v>
       </c>
       <c r="J6" s="57"/>
@@ -2823,7 +3044,7 @@
       <c r="H8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" t="s" s="74">
         <v>153</v>
       </c>
       <c r="J8" s="11"/>
@@ -2851,7 +3072,7 @@
       <c r="H9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" t="s" s="75">
         <v>153</v>
       </c>
     </row>
@@ -2876,7 +3097,7 @@
       <c r="H10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" t="s" s="76">
         <v>153</v>
       </c>
       <c r="J10" s="11"/>
@@ -2904,7 +3125,7 @@
       <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" t="s" s="77">
         <v>153</v>
       </c>
     </row>
@@ -2946,7 +3167,7 @@
       <c r="H13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" t="s" s="78">
         <v>153</v>
       </c>
     </row>
@@ -2969,7 +3190,7 @@
       <c r="H14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" t="s" s="79">
         <v>153</v>
       </c>
     </row>
@@ -2994,8 +3215,8 @@
       <c r="H15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>153</v>
+      <c r="I15" t="s" s="80">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3019,7 +3240,7 @@
       <c r="H16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" t="s" s="81">
         <v>153</v>
       </c>
     </row>
@@ -3046,7 +3267,7 @@
       <c r="H17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" t="s" s="83">
         <v>153</v>
       </c>
     </row>
@@ -3073,7 +3294,7 @@
       <c r="H18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" t="s" s="84">
         <v>153</v>
       </c>
     </row>
@@ -3102,7 +3323,7 @@
       <c r="H19" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" t="s" s="85">
         <v>153</v>
       </c>
     </row>
@@ -3127,7 +3348,7 @@
       <c r="H20" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" t="s" s="86">
         <v>153</v>
       </c>
     </row>
@@ -3152,7 +3373,7 @@
       <c r="H21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" t="s" s="87">
         <v>153</v>
       </c>
     </row>
@@ -3177,7 +3398,7 @@
       <c r="H22" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" t="s" s="88">
         <v>153</v>
       </c>
     </row>
@@ -3202,7 +3423,7 @@
       <c r="H23" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" t="s" s="89">
         <v>153</v>
       </c>
     </row>
@@ -3227,7 +3448,7 @@
       <c r="H24" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" t="s" s="91">
         <v>153</v>
       </c>
     </row>
@@ -3252,7 +3473,7 @@
       <c r="H25" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" t="s" s="92">
         <v>153</v>
       </c>
     </row>
@@ -3277,7 +3498,7 @@
       <c r="H26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" t="s" s="93">
         <v>153</v>
       </c>
     </row>
@@ -3302,7 +3523,7 @@
       <c r="H27" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" t="s" s="90">
         <v>153</v>
       </c>
     </row>
@@ -3329,7 +3550,7 @@
       <c r="H28" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" t="s" s="94">
         <v>153</v>
       </c>
     </row>
@@ -3354,7 +3575,7 @@
       <c r="H29" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" t="s" s="95">
         <v>153</v>
       </c>
     </row>
@@ -3379,7 +3600,7 @@
       <c r="H30" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" t="s" s="96">
         <v>153</v>
       </c>
     </row>
@@ -3404,7 +3625,7 @@
       <c r="H31" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" t="s" s="97">
         <v>153</v>
       </c>
     </row>
@@ -3429,7 +3650,7 @@
       <c r="H32" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" t="s" s="98">
         <v>153</v>
       </c>
     </row>
@@ -3454,7 +3675,7 @@
       <c r="H33" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" t="s" s="99">
         <v>153</v>
       </c>
     </row>
@@ -3481,7 +3702,7 @@
       <c r="H34" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" t="s" s="100">
         <v>153</v>
       </c>
     </row>
@@ -3506,7 +3727,7 @@
       <c r="H35" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I35" t="s" s="101">
         <v>153</v>
       </c>
     </row>
@@ -3531,7 +3752,7 @@
       <c r="H36" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" t="s" s="102">
         <v>153</v>
       </c>
     </row>
@@ -3556,7 +3777,7 @@
       <c r="H37" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="56" t="s">
+      <c r="I37" t="s" s="103">
         <v>153</v>
       </c>
     </row>

--- a/Extra/TestCases.xlsx
+++ b/Extra/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="181">
   <si>
     <t>Prepared By:</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>16,8</t>
-  </si>
-  <si>
-    <t>Sunil,sunil211@mailinator.com,9910881849,Great Guys keep it up</t>
   </si>
   <si>
     <t>Login</t>
@@ -627,13 +624,16 @@
   <si>
     <t>FAIL</t>
   </si>
+  <si>
+    <t>Sunil,sunil211@mailinator.com,7838877189,Testing  Platform please ignore this query</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="390" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,8 +811,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -876,173 +878,1977 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="15"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="15.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
+      <sz val="15"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1534,7 +3340,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,7 +3398,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1622,6 +3436,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1659,15 +3474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1699,6 +3505,307 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -2049,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:F41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,42 +4995,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2931,7 +5038,7 @@
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="9"/>
@@ -2975,23 +5082,23 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="70" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -3000,41 +5107,41 @@
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s" s="73">
-        <v>153</v>
-      </c>
-      <c r="J6" s="57"/>
+      <c r="I6" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I7" s="24"/>
-      <c r="J7" s="59"/>
+      <c r="J7" s="62"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
@@ -3044,20 +5151,20 @@
       <c r="H8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s" s="74">
-        <v>153</v>
+      <c r="I8" s="57" t="s">
+        <v>179</v>
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -3072,17 +5179,17 @@
       <c r="H9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s" s="75">
-        <v>153</v>
+      <c r="I9" s="58" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -3092,66 +5199,66 @@
         <v>32</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s" s="76">
-        <v>153</v>
+      <c r="I10" t="s" s="401">
+        <v>152</v>
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="72" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s" s="77">
-        <v>153</v>
+      <c r="I11" s="53" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="69"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
@@ -3167,18 +5274,18 @@
       <c r="H13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s" s="78">
-        <v>153</v>
+      <c r="I13" s="54" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3190,16 +5297,16 @@
       <c r="H14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I14" t="s" s="79">
-        <v>153</v>
+      <c r="I14" s="55" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="58"/>
+        <v>94</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
@@ -3210,21 +5317,21 @@
         <v>51</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s" s="80">
-        <v>180</v>
+      <c r="I15" t="s" s="402">
+        <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
+        <v>95</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="4" t="s">
         <v>53</v>
       </c>
@@ -3240,15 +5347,15 @@
       <c r="H16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I16" t="s" s="81">
-        <v>153</v>
+      <c r="I16" t="s" s="403">
+        <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="61"/>
+        <v>96</v>
+      </c>
+      <c r="B17" s="64"/>
       <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
@@ -3267,591 +5374,591 @@
       <c r="H17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I17" t="s" s="83">
-        <v>153</v>
+      <c r="I17" t="s" s="84">
+        <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="62"/>
+        <v>97</v>
+      </c>
+      <c r="B18" s="65"/>
       <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="I18" t="s" s="404">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I18" t="s" s="84">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="57" t="s">
+      <c r="C19" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s" s="344">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I19" t="s" s="85">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s" s="346">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I20" t="s" s="86">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="348">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="I21" t="s" s="87">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="350">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="I22" t="s" s="88">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" t="s" s="89">
-        <v>153</v>
+        <v>86</v>
+      </c>
+      <c r="I23" t="s" s="352">
+        <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+        <v>103</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" t="s" s="91">
-        <v>153</v>
+        <v>87</v>
+      </c>
+      <c r="I24" t="s" s="356">
+        <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+        <v>104</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" t="s" s="92">
-        <v>153</v>
+        <v>88</v>
+      </c>
+      <c r="I25" t="s" s="358">
+        <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+        <v>105</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" t="s" s="93">
-        <v>153</v>
+        <v>89</v>
+      </c>
+      <c r="I26" t="s" s="176">
+        <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
+        <v>106</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" t="s" s="90">
-        <v>153</v>
+        <v>93</v>
+      </c>
+      <c r="I27" t="s" s="354">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" t="s" s="94">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="I28" t="s" s="360">
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
+        <v>125</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" t="s" s="95">
-        <v>153</v>
+        <v>139</v>
+      </c>
+      <c r="I29" t="s" s="300">
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+        <v>126</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" t="s" s="96">
-        <v>153</v>
+        <v>140</v>
+      </c>
+      <c r="I30" t="s" s="362">
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+        <v>127</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" t="s" s="97">
-        <v>153</v>
+        <v>141</v>
+      </c>
+      <c r="I31" t="s" s="322">
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+        <v>128</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" t="s" s="98">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="I32" t="s" s="324">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" t="s" s="99">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="I33" t="s" s="326">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="61"/>
+      <c r="C34" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" t="s" s="100">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="I34" t="s" s="328">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+        <v>131</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" t="s" s="101">
-        <v>153</v>
+        <v>145</v>
+      </c>
+      <c r="I35" t="s" s="330">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+        <v>132</v>
+      </c>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" t="s" s="102">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="I36" t="s" s="332">
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
+        <v>133</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I37" t="s" s="103">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="I37" t="s" s="334">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="57" t="s">
-        <v>155</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3859,12 +5966,12 @@
     </row>
     <row r="43" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3872,52 +5979,52 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3925,12 +6032,12 @@
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3938,12 +6045,12 @@
     </row>
     <row r="50" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3951,12 +6058,12 @@
     </row>
     <row r="51" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3964,66 +6071,70 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="58"/>
+        <v>175</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="59"/>
+        <v>175</v>
+      </c>
+      <c r="B57" s="65"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B19:B37"/>
+    <mergeCell ref="C28:C33"/>
     <mergeCell ref="C38:C57"/>
     <mergeCell ref="B38:B57"/>
     <mergeCell ref="A1:A3"/>
@@ -4040,10 +6151,6 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C19:C27"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B19:B37"/>
-    <mergeCell ref="C28:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
